--- a/case-based/readme/case-based-graph.xlsx
+++ b/case-based/readme/case-based-graph.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
+    <sheet name="Task2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>topN</t>
   </si>
@@ -57,6 +58,27 @@
   </si>
   <si>
     <t>Precision for jaccardCaseSimilarity | MeanRecommender</t>
+  </si>
+  <si>
+    <t>overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim</t>
+  </si>
+  <si>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim</t>
+  </si>
+  <si>
+    <t>overlapCaseSimilarity | MaxRecommender | movie mean rating asymmetric sim</t>
+  </si>
+  <si>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | movie mean rating asymmetric sim</t>
+  </si>
+  <si>
+    <t>overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim | movie mean rating asymmetric sim</t>
+  </si>
+  <si>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim | movie mean rating asymmetric sim</t>
+  </si>
+  <si>
+    <t>….</t>
   </si>
 </sst>
 </file>
@@ -527,7 +549,7 @@
                   <c:v>0.01295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0133599999999999</c:v>
+                  <c:v>0.0113599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0129666666666666</c:v>
@@ -985,7 +1007,858 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Precision =</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> f(Recall)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.151902617423504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.277184690183807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.383722615015072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.442470091323048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.457344459097099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.468336634159447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.483055150424298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.493580923952057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.503076273433212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.512864113712295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.196199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.176699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.137899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0999000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0890857142857149</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0736444444444453</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0682600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie mean rating asymmetric sim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0300168269096741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0709779618669029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0868395196174432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10131969413668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.115473713310632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.129291611405293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.141419833615627</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.148981501405073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.158752391029435</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.168196687811964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0572000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0477333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0410999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0376799999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0349666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0306999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0291999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0278999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim | movie mean rating asymmetric sim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$B$30:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.157156232656503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.286424690081958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.396614232087169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.456133170146378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.472216477978526</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48657673149202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.499672574615904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.510479015123178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.522097508110112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.533231973223972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$C$30:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.203199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.183199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.165866666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.142049999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.103566666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0923142857142863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.083375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0764222222222231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0709800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>….</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2139432496"/>
+        <c:axId val="-2117250976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2139432496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117250976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2117250976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Pr</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>écision</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2139432496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1541,6 +2414,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1560,6 +2949,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="Graphique 9"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1841,8 +3267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2194,7 +3620,7 @@
         <v>4.0431348371323297E-2</v>
       </c>
       <c r="C34">
-        <v>1.33599999999999E-2</v>
+        <v>1.13599999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2381,6 +3807,448 @@
       </c>
       <c r="C52">
         <v>2.0019999999999798E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.151902617423504</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.19619999999999899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.27718469018380698</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.176699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.38372261501507199</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.16020000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.44247009132304799</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.137899999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.45734445909709898</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.11536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.46833663415944699</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.9900000000000294E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.48305515042429797</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.9085714285714906E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.49358092395205699</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.0699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>0.50307627343321204</v>
+      </c>
+      <c r="C12">
+        <v>7.3644444444445303E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>0.51286411371229501</v>
+      </c>
+      <c r="C13">
+        <v>6.8260000000000098E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.00168269096741E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.1000000000000101E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7.0977961866902903E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.7200000000000299E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8.6839519617443198E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4.77333333333336E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.10131969413668</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.1099999999999901E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.115473713310632</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.7679999999999603E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.12929161140529299</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.4966666666666903E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.14141983361562699</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.2999999999999897E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.14898150140507299</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.06999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>0.158752391029435</v>
+      </c>
+      <c r="C25">
+        <v>2.91999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.16819668781196401</v>
+      </c>
+      <c r="C26">
+        <v>2.7899999999999599E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>0.157156232656503</v>
+      </c>
+      <c r="C30">
+        <v>0.20319999999999899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>0.28642469008195798</v>
+      </c>
+      <c r="C31">
+        <v>0.183199999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>0.39661423208716901</v>
+      </c>
+      <c r="C32">
+        <v>0.165866666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>0.456133170146378</v>
+      </c>
+      <c r="C33">
+        <v>0.14204999999999901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>0.47221647797852601</v>
+      </c>
+      <c r="C34">
+        <v>0.11924</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>0.48657673149202002</v>
+      </c>
+      <c r="C35">
+        <v>0.103566666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.49967257461590397</v>
+      </c>
+      <c r="C36">
+        <v>9.2314285714286307E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.51047901512317795</v>
+      </c>
+      <c r="C37">
+        <v>8.3375000000000005E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>0.52209750811011202</v>
+      </c>
+      <c r="C38">
+        <v>7.6422222222223099E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>0.53323197322397198</v>
+      </c>
+      <c r="C39">
+        <v>7.0980000000000099E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/case-based/readme/case-based-graph.xlsx
+++ b/case-based/readme/case-based-graph.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
-    <sheet name="Task2" sheetId="2" r:id="rId2"/>
+    <sheet name="Task2 - 1 " sheetId="2" r:id="rId2"/>
+    <sheet name="Task2 - 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>topN</t>
   </si>
@@ -60,25 +61,46 @@
     <t>Precision for jaccardCaseSimilarity | MeanRecommender</t>
   </si>
   <si>
-    <t>overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim</t>
+    <t>overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim | movie mean rating symmetric sim</t>
   </si>
   <si>
-    <t>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim</t>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim | movie mean rating symmetric sim</t>
   </si>
   <si>
-    <t>overlapCaseSimilarity | MaxRecommender | movie mean rating asymmetric sim</t>
+    <t>overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim | movie mean rating asymmetric long tail high value sim</t>
   </si>
   <si>
-    <t>Precision for overlapCaseSimilarity | MaxRecommender | movie mean rating asymmetric sim</t>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim | movie mean rating asymmetric long tail high value sim</t>
   </si>
   <si>
-    <t>overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim | movie mean rating asymmetric sim</t>
+    <t>overlapCaseSimilarity | MaxRecommender | movie popularity asymmetric long tail high value sim | movie mean rating symmetric sim</t>
   </si>
   <si>
-    <t>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim | movie mean rating asymmetric sim</t>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity asymmetric long tail high value sim | movie mean rating symmetric sim</t>
   </si>
   <si>
-    <t>….</t>
+    <t>overlapCaseSimilarity | MaxRecommender | movie popularity asymmetric long tail high value sim | movie mean rating asymmetric long tail high value sim</t>
+  </si>
+  <si>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity asymmetric long tail high value sim | movie mean rating asymmetric long tail high value sim</t>
+  </si>
+  <si>
+    <t>overlapCaseSimilarity | MaxRecommender | movie popularity asymmetric higher value | movie mean rating asymmetric higher value</t>
+  </si>
+  <si>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity asymmetric higher value | movie mean rating asymmetric higher value</t>
+  </si>
+  <si>
+    <t>overlapCaseSimilarity | MaxRecommender | movie popularity asymmetric lowe value | movie mean rating asymmetric lowe value</t>
+  </si>
+  <si>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity asymmetric lowe value | movie mean rating asymmetric lowe value</t>
+  </si>
+  <si>
+    <t>overlapCaseSimilarity | MaxRecommender | movie popularity symmetric | movie mean rating asymmetric higher value</t>
+  </si>
+  <si>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric | movie mean rating asymmetric higher value</t>
   </si>
 </sst>
 </file>
@@ -697,11 +719,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2118140496"/>
-        <c:axId val="-2118809968"/>
+        <c:axId val="-2136522976"/>
+        <c:axId val="-2136516544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2118140496"/>
+        <c:axId val="-2136522976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,12 +822,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118809968"/>
+        <c:crossAx val="-2136516544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2118809968"/>
+        <c:axId val="-2136516544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,7 +945,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118140496"/>
+        <c:crossAx val="-2136522976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1022,6 +1044,908 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task2 - 1 '!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim | movie mean rating symmetric sim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task2 - 1 '!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.169865307639246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.303970565186926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40381414134731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.463652572247257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.483322369418372</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49618190968057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.505541208635478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.515872725819494</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.526462403069701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.535806216547721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task2 - 1 '!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.217199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.191899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.168733333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.144499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.105633333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0931142857142862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.083775</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0766888888888897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0707600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task2 - 1 '!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity asymmetric higher value | movie mean rating asymmetric higher value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task2 - 1 '!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0788916374516151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.115444291744895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.159794952849646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22201991058912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.282208500686689</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.346726997498955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.400730671900709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43317051772288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.461595585283534</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.484899930446556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task2 - 1 '!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0841999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0762666666666672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0763999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0760799999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0768333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0756857142857148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0717499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0680666666666674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task2 - 1 '!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity asymmetric lowe value | movie mean rating asymmetric lowe value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task2 - 1 '!$B$30:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0554246782649646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0765012773186899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0957538717121729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.119764822664291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.155870424249169</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.194155699150012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.242135038032111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.280254809000351</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.312050106748076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.335583197558323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task2 - 1 '!$C$30:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0814000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0599000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0503333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0463999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0467999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0466666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0482857142857147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0482749999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0474222222222226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0460799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task2 - 1 '!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric | movie mean rating asymmetric higher value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task2 - 1 '!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0687952848276309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.108253281483862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15293569914537</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21648727070909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.275156067796574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33649664598145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.389530881231863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.427239057049968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.453102671743884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.479362741665263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task2 - 1 '!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0728666666666672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0741999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0737599999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0742333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0733428571428577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0703249999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0663555555555562</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task2 - 1 '!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric | movie mean rating asymmetric higher value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task2 - 1 '!$B$56:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0691914585814134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.109198517680414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15474620974908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.219189121211102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.278459719697791</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.335432787110333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.386534878444843</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.426434156788775</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.453543536687381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.478497691294846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task2 - 1 '!$C$56:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0735333333333339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0749499999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0744399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0740333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0727428571428577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0663777777777784</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2101874336"/>
+        <c:axId val="-2101645696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2101874336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2101645696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2101645696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2101874336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1046,7 +1970,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> f(Recall)</a:t>
+              <a:t> f(Recall) - long tail high value</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -1093,11 +2017,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Task2!$C$3</c:f>
+              <c:f>'Task2 - 2'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim</c:v>
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim | movie mean rating symmetric sim</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1128,78 +2052,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Task2!$B$4:$B$13</c:f>
+              <c:f>'Task2 - 2'!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.151902617423504</c:v>
+                  <c:v>0.169865307639246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.277184690183807</c:v>
+                  <c:v>0.303970565186926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.383722615015072</c:v>
+                  <c:v>0.40381414134731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.442470091323048</c:v>
+                  <c:v>0.463652572247257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.457344459097099</c:v>
+                  <c:v>0.483322369418372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.468336634159447</c:v>
+                  <c:v>0.49618190968057</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.483055150424298</c:v>
+                  <c:v>0.505541208635478</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.493580923952057</c:v>
+                  <c:v>0.515872725819494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.503076273433212</c:v>
+                  <c:v>0.526462403069701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.512864113712295</c:v>
+                  <c:v>0.535806216547721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Task2!$C$4:$C$13</c:f>
+              <c:f>'Task2 - 2'!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.196199999999999</c:v>
+                  <c:v>0.217199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.176699999999999</c:v>
+                  <c:v>0.191899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1602</c:v>
+                  <c:v>0.168733333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.137899999999999</c:v>
+                  <c:v>0.144499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11536</c:v>
+                  <c:v>0.12228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0999000000000003</c:v>
+                  <c:v>0.105633333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0890857142857149</c:v>
+                  <c:v>0.0931142857142862</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0807</c:v>
+                  <c:v>0.083775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0736444444444453</c:v>
+                  <c:v>0.0766888888888897</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0682600000000001</c:v>
+                  <c:v>0.0707600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,11 +2135,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Task2!$C$16</c:f>
+              <c:f>'Task2 - 2'!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie mean rating asymmetric sim</c:v>
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity asymmetric long tail high value sim | movie mean rating asymmetric long tail high value sim</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1246,78 +2170,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Task2!$B$17:$B$26</c:f>
+              <c:f>'Task2 - 2'!$B$17:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0300168269096741</c:v>
+                  <c:v>0.169368560824064</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0709779618669029</c:v>
+                  <c:v>0.307755322620124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0868395196174432</c:v>
+                  <c:v>0.406842724635783</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10131969413668</c:v>
+                  <c:v>0.464406949309837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.115473713310632</c:v>
+                  <c:v>0.483818604059384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.129291611405293</c:v>
+                  <c:v>0.495953155214158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.141419833615627</c:v>
+                  <c:v>0.505962892672887</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.148981501405073</c:v>
+                  <c:v>0.515515872554533</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.158752391029435</c:v>
+                  <c:v>0.526700862924123</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.168196687811964</c:v>
+                  <c:v>0.536434704716975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Task2!$C$17:$C$26</c:f>
+              <c:f>'Task2 - 2'!$C$17:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0510000000000001</c:v>
+                  <c:v>0.216799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0572000000000003</c:v>
+                  <c:v>0.194899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0477333333333336</c:v>
+                  <c:v>0.170333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0410999999999999</c:v>
+                  <c:v>0.144849999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0376799999999996</c:v>
+                  <c:v>0.1224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0349666666666669</c:v>
+                  <c:v>0.105833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0329999999999999</c:v>
+                  <c:v>0.093428571428572</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0306999999999998</c:v>
+                  <c:v>0.084</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0291999999999999</c:v>
+                  <c:v>0.0770000000000008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0278999999999996</c:v>
+                  <c:v>0.07116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,11 +2253,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Task2!$C$29</c:f>
+              <c:f>'Task2 - 2'!$C$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim | movie mean rating asymmetric sim</c:v>
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity asymmetric long tail high value sim | movie mean rating symmetric sim</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1364,78 +2288,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Task2!$B$30:$B$39</c:f>
+              <c:f>'Task2 - 2'!$B$30:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.157156232656503</c:v>
+                  <c:v>0.170409469914973</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.286424690081958</c:v>
+                  <c:v>0.305331128231063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.396614232087169</c:v>
+                  <c:v>0.405812512718071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.456133170146378</c:v>
+                  <c:v>0.464585520738408</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.472216477978526</c:v>
+                  <c:v>0.484315429456209</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48657673149202</c:v>
+                  <c:v>0.495637014818606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.499672574615904</c:v>
+                  <c:v>0.505903646853347</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.510479015123178</c:v>
+                  <c:v>0.515703726367387</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.522097508110112</c:v>
+                  <c:v>0.527595137603692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.533231973223972</c:v>
+                  <c:v>0.53636545645148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Task2!$C$30:$C$39</c:f>
+              <c:f>'Task2 - 2'!$C$30:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.203199999999999</c:v>
+                  <c:v>0.217999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.183199999999999</c:v>
+                  <c:v>0.193599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.165866666666667</c:v>
+                  <c:v>0.169933333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.142049999999999</c:v>
+                  <c:v>0.144949999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11924</c:v>
+                  <c:v>0.12252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.103566666666666</c:v>
+                  <c:v>0.1058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0923142857142863</c:v>
+                  <c:v>0.0933428571428577</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.083375</c:v>
+                  <c:v>0.084</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0764222222222231</c:v>
+                  <c:v>0.0771111111111119</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0709800000000001</c:v>
+                  <c:v>0.07114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1447,11 +2371,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Task2!$C$42</c:f>
+              <c:f>'Task2 - 2'!$C$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>….</c:v>
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric sim | movie mean rating asymmetric long tail high value sim</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1482,19 +2406,79 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Task2!$B$43:$B$52</c:f>
+              <c:f>'Task2 - 2'!$B$43:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.169024398548337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.305755503859365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.403524952758122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46361723443555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.482943662849506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.495671592220252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.506063449007718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.515618685415454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.527154486833031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.535890400827494</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Task2!$C$43:$C$52</c:f>
+              <c:f>'Task2 - 2'!$C$43:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.216199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.192599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.144399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.105566666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0931714285714291</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0767777777777786</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0708200000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1508,11 +2492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2139432496"/>
-        <c:axId val="-2117250976"/>
+        <c:axId val="-2103432704"/>
+        <c:axId val="-2105038928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2139432496"/>
+        <c:axId val="-2103432704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,12 +2595,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117250976"/>
+        <c:crossAx val="-2105038928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117250976"/>
+        <c:axId val="-2105038928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,7 +2718,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139432496"/>
+        <c:crossAx val="-2103432704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1898,6 +2882,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2415,6 +3439,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2969,16 +4509,53 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3267,7 +4844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:C39"/>
     </sheetView>
   </sheetViews>
@@ -3817,10 +5394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3859,10 +5436,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.151902617423504</v>
+        <v>0.16986530763924601</v>
       </c>
       <c r="C4" s="1">
-        <v>0.19619999999999899</v>
+        <v>0.217199999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3870,10 +5447,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>0.27718469018380698</v>
+        <v>0.303970565186926</v>
       </c>
       <c r="C5" s="1">
-        <v>0.176699999999999</v>
+        <v>0.19189999999999899</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3881,10 +5458,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>0.38372261501507199</v>
+        <v>0.40381414134730997</v>
       </c>
       <c r="C6" s="1">
-        <v>0.16020000000000001</v>
+        <v>0.16873333333333301</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3892,10 +5469,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>0.44247009132304799</v>
+        <v>0.46365257224725698</v>
       </c>
       <c r="C7" s="1">
-        <v>0.137899999999999</v>
+        <v>0.14449999999999899</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3903,10 +5480,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="1">
-        <v>0.45734445909709898</v>
+        <v>0.48332236941837198</v>
       </c>
       <c r="C8" s="1">
-        <v>0.11536</v>
+        <v>0.12228</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3914,10 +5491,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="1">
-        <v>0.46833663415944699</v>
+        <v>0.49618190968057002</v>
       </c>
       <c r="C9" s="1">
-        <v>9.9900000000000294E-2</v>
+        <v>0.105633333333333</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3925,10 +5502,10 @@
         <v>35</v>
       </c>
       <c r="B10" s="1">
-        <v>0.48305515042429797</v>
+        <v>0.50554120863547802</v>
       </c>
       <c r="C10" s="1">
-        <v>8.9085714285714906E-2</v>
+        <v>9.3114285714286205E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3936,10 +5513,10 @@
         <v>40</v>
       </c>
       <c r="B11" s="1">
-        <v>0.49358092395205699</v>
+        <v>0.51587272581949395</v>
       </c>
       <c r="C11" s="1">
-        <v>8.0699999999999994E-2</v>
+        <v>8.3775000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3947,10 +5524,10 @@
         <v>45</v>
       </c>
       <c r="B12">
-        <v>0.50307627343321204</v>
+        <v>0.52646240306970105</v>
       </c>
       <c r="C12">
-        <v>7.3644444444445303E-2</v>
+        <v>7.6688888888889695E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3958,10 +5535,10 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>0.51286411371229501</v>
+        <v>0.53580621654772098</v>
       </c>
       <c r="C13">
-        <v>6.8260000000000098E-2</v>
+        <v>7.0760000000000101E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3973,7 +5550,7 @@
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3986,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3994,10 +5571,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="1">
-        <v>3.00168269096741E-2</v>
+        <v>7.8891637451615093E-2</v>
       </c>
       <c r="C17" s="1">
-        <v>5.1000000000000101E-2</v>
+        <v>0.11260000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4005,10 +5582,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="1">
-        <v>7.0977961866902903E-2</v>
+        <v>0.115444291744895</v>
       </c>
       <c r="C18" s="1">
-        <v>5.7200000000000299E-2</v>
+        <v>8.4199999999999803E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4016,10 +5593,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>8.6839519617443198E-2</v>
+        <v>0.15979495284964601</v>
       </c>
       <c r="C19" s="1">
-        <v>4.77333333333336E-2</v>
+        <v>7.6266666666667204E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4027,10 +5604,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>0.10131969413668</v>
+        <v>0.22201991058911999</v>
       </c>
       <c r="C20" s="1">
-        <v>4.1099999999999901E-2</v>
+        <v>7.6399999999999593E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4038,10 +5615,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="1">
-        <v>0.115473713310632</v>
+        <v>0.28220850068668901</v>
       </c>
       <c r="C21" s="1">
-        <v>3.7679999999999603E-2</v>
+        <v>7.6079999999999606E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4049,10 +5626,10 @@
         <v>30</v>
       </c>
       <c r="B22" s="1">
-        <v>0.12929161140529299</v>
+        <v>0.34672699749895503</v>
       </c>
       <c r="C22" s="1">
-        <v>3.4966666666666903E-2</v>
+        <v>7.6833333333333406E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4060,10 +5637,10 @@
         <v>35</v>
       </c>
       <c r="B23" s="1">
-        <v>0.14141983361562699</v>
+        <v>0.40073067190070899</v>
       </c>
       <c r="C23" s="1">
-        <v>3.2999999999999897E-2</v>
+        <v>7.56857142857148E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4071,10 +5648,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="1">
-        <v>0.14898150140507299</v>
+        <v>0.43317051772288001</v>
       </c>
       <c r="C24" s="1">
-        <v>3.06999999999998E-2</v>
+        <v>7.1749999999999897E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4082,10 +5659,10 @@
         <v>45</v>
       </c>
       <c r="B25">
-        <v>0.158752391029435</v>
+        <v>0.461595585283534</v>
       </c>
       <c r="C25">
-        <v>2.91999999999999E-2</v>
+        <v>6.80666666666674E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4093,10 +5670,10 @@
         <v>50</v>
       </c>
       <c r="B26">
-        <v>0.16819668781196401</v>
+        <v>0.48489993044655599</v>
       </c>
       <c r="C26">
-        <v>2.7899999999999599E-2</v>
+        <v>6.4439999999999997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4106,7 +5683,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4117,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4125,10 +5702,10 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>0.157156232656503</v>
+        <v>5.5424678264964597E-2</v>
       </c>
       <c r="C30">
-        <v>0.20319999999999899</v>
+        <v>8.1400000000000403E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -4136,10 +5713,10 @@
         <v>10</v>
       </c>
       <c r="B31">
-        <v>0.28642469008195798</v>
+        <v>7.65012773186899E-2</v>
       </c>
       <c r="C31">
-        <v>0.183199999999999</v>
+        <v>5.9900000000000397E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4147,10 +5724,10 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>0.39661423208716901</v>
+        <v>9.5753871712172894E-2</v>
       </c>
       <c r="C32">
-        <v>0.165866666666667</v>
+        <v>5.0333333333333702E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4158,10 +5735,10 @@
         <v>20</v>
       </c>
       <c r="B33">
-        <v>0.456133170146378</v>
+        <v>0.119764822664291</v>
       </c>
       <c r="C33">
-        <v>0.14204999999999901</v>
+        <v>4.6399999999999803E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -4169,10 +5746,10 @@
         <v>25</v>
       </c>
       <c r="B34">
-        <v>0.47221647797852601</v>
+        <v>0.155870424249169</v>
       </c>
       <c r="C34">
-        <v>0.11924</v>
+        <v>4.6799999999999398E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4180,10 +5757,10 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>0.48657673149202002</v>
+        <v>0.19415569915001199</v>
       </c>
       <c r="C35">
-        <v>0.103566666666666</v>
+        <v>4.6666666666666801E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -4191,10 +5768,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.49967257461590397</v>
+        <v>0.24213503803211101</v>
       </c>
       <c r="C36">
-        <v>9.2314285714286307E-2</v>
+        <v>4.8285714285714702E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4202,10 +5779,10 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0.51047901512317795</v>
+        <v>0.28025480900035099</v>
       </c>
       <c r="C37">
-        <v>8.3375000000000005E-2</v>
+        <v>4.8274999999999797E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -4213,10 +5790,10 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>0.52209750811011202</v>
+        <v>0.31205010674807598</v>
       </c>
       <c r="C38">
-        <v>7.6422222222223099E-2</v>
+        <v>4.7422222222222601E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4224,10 +5801,10 @@
         <v>50</v>
       </c>
       <c r="B39">
-        <v>0.53323197322397198</v>
+        <v>0.335583197558323</v>
       </c>
       <c r="C39">
-        <v>7.0980000000000099E-2</v>
+        <v>4.6079999999999899E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4237,7 +5814,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -4248,7 +5825,801 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>6.8795284827630906E-2</v>
+      </c>
+      <c r="C43">
+        <v>0.1002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>0.108253281483862</v>
+      </c>
+      <c r="C44">
+        <v>7.8700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>0.15293569914537</v>
+      </c>
+      <c r="C45">
+        <v>7.2866666666667204E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>0.21648727070908999</v>
+      </c>
+      <c r="C46">
+        <v>7.4199999999999697E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>0.27515606779657398</v>
+      </c>
+      <c r="C47">
+        <v>7.3759999999999507E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>0.33649664598145002</v>
+      </c>
+      <c r="C48">
+        <v>7.4233333333333304E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>0.38953088123186302</v>
+      </c>
+      <c r="C49">
+        <v>7.3342857142857695E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>0.42723905704996801</v>
+      </c>
+      <c r="C50">
+        <v>7.0324999999999901E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>0.45310267174388402</v>
+      </c>
+      <c r="C51">
+        <v>6.6355555555556195E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.47936274166526299</v>
+      </c>
+      <c r="C52">
+        <v>6.3399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>6.9191458581413401E-2</v>
+      </c>
+      <c r="C56">
+        <v>0.1004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>0.109198517680414</v>
+      </c>
+      <c r="C57">
+        <v>7.9600000000000004E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>0.15474620974907999</v>
+      </c>
+      <c r="C58">
+        <v>7.3533333333333895E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <v>0.21918912121110201</v>
+      </c>
+      <c r="C59">
+        <v>7.49499999999996E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>25</v>
+      </c>
+      <c r="B60">
+        <v>0.27845971969779099</v>
+      </c>
+      <c r="C60">
+        <v>7.4439999999999604E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>0.33543278711033298</v>
+      </c>
+      <c r="C61">
+        <v>7.4033333333333298E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>35</v>
+      </c>
+      <c r="B62">
+        <v>0.38653487844484302</v>
+      </c>
+      <c r="C62">
+        <v>7.2742857142857706E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>40</v>
+      </c>
+      <c r="B63">
+        <v>0.426434156788775</v>
+      </c>
+      <c r="C63">
+        <v>7.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>45</v>
+      </c>
+      <c r="B64">
+        <v>0.45354353668738101</v>
+      </c>
+      <c r="C64">
+        <v>6.6377777777778396E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>50</v>
+      </c>
+      <c r="B65">
+        <v>0.47849769129484598</v>
+      </c>
+      <c r="C65">
+        <v>6.3299999999999995E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.16986530763924601</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.217199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.303970565186926</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.19189999999999899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.40381414134730997</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.16873333333333301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.46365257224725698</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.14449999999999899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.48332236941837198</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.12228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.49618190968057002</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.105633333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.50554120863547802</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9.3114285714286205E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.51587272581949395</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.3775000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>0.52646240306970105</v>
+      </c>
+      <c r="C12">
+        <v>7.6688888888889695E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>0.53580621654772098</v>
+      </c>
+      <c r="C13">
+        <v>7.0760000000000101E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.16936856082406401</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.21679999999999899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.30775532262012401</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.19489999999999899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.40684272463578303</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.170333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.464406949309837</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.14484999999999901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.48381860405938398</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.12239999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.495953155214158</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.105833333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.50596289267288697</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9.3428571428571999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.51551587255453302</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>0.52670086292412299</v>
+      </c>
+      <c r="C25">
+        <v>7.7000000000000804E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.53643470471697496</v>
+      </c>
+      <c r="C26">
+        <v>7.1160000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>0.17040946991497299</v>
+      </c>
+      <c r="C30">
+        <v>0.217999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>0.30533112823106301</v>
+      </c>
+      <c r="C31">
+        <v>0.193599999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>0.40581251271807101</v>
+      </c>
+      <c r="C32">
+        <v>0.16993333333333299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>0.46458552073840798</v>
+      </c>
+      <c r="C33">
+        <v>0.144949999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>0.48431542945620898</v>
+      </c>
+      <c r="C34">
+        <v>0.12252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>0.495637014818606</v>
+      </c>
+      <c r="C35">
+        <v>0.10580000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.50590364685334699</v>
+      </c>
+      <c r="C36">
+        <v>9.3342857142857699E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.51570372636738704</v>
+      </c>
+      <c r="C37">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>0.52759513760369203</v>
+      </c>
+      <c r="C38">
+        <v>7.7111111111111894E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>0.53636545645148004</v>
+      </c>
+      <c r="C39">
+        <v>7.1139999999999995E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>0.16902439854833701</v>
+      </c>
+      <c r="C43">
+        <v>0.216199999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>0.30575550385936501</v>
+      </c>
+      <c r="C44">
+        <v>0.19259999999999899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>0.403524952758122</v>
+      </c>
+      <c r="C45">
+        <v>0.1686</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>0.46361723443554997</v>
+      </c>
+      <c r="C46">
+        <v>0.144399999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>0.48294366284950602</v>
+      </c>
+      <c r="C47">
+        <v>0.12216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>0.49567159222025198</v>
+      </c>
+      <c r="C48">
+        <v>0.105566666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>0.50606344900771805</v>
+      </c>
+      <c r="C49">
+        <v>9.3171428571429099E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>0.51561868541545397</v>
+      </c>
+      <c r="C50">
+        <v>8.3750000000000005E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>0.52715448683303101</v>
+      </c>
+      <c r="C51">
+        <v>7.6777777777778597E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.53589040082749395</v>
+      </c>
+      <c r="C52">
+        <v>7.0820000000000105E-2</v>
       </c>
     </row>
   </sheetData>

--- a/case-based/readme/case-based-graph.xlsx
+++ b/case-based/readme/case-based-graph.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
     <sheet name="Task2 - 1 " sheetId="2" r:id="rId2"/>
     <sheet name="Task2 - 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Task3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
   <si>
     <t>topN</t>
   </si>
@@ -101,6 +102,12 @@
   </si>
   <si>
     <t>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric | movie mean rating asymmetric higher value</t>
+  </si>
+  <si>
+    <t>overlapCaseSimilarity | MaxRecommender | task3</t>
+  </si>
+  <si>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | task3</t>
   </si>
 </sst>
 </file>
@@ -719,11 +726,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136522976"/>
-        <c:axId val="-2136516544"/>
+        <c:axId val="-2140707808"/>
+        <c:axId val="-2140701376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136522976"/>
+        <c:axId val="-2140707808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,12 +829,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136516544"/>
+        <c:crossAx val="-2140701376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136516544"/>
+        <c:axId val="-2140701376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +952,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136522976"/>
+        <c:crossAx val="-2140707808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1671,7 +1678,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1679,11 +1685,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2101874336"/>
-        <c:axId val="-2101645696"/>
+        <c:axId val="-2140554144"/>
+        <c:axId val="-2140533232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2101874336"/>
+        <c:axId val="-2140554144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,12 +1763,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101645696"/>
+        <c:crossAx val="-2140533232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2101645696"/>
+        <c:axId val="-2140533232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,7 +1856,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101874336"/>
+        <c:crossAx val="-2140554144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2492,11 +2498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2103432704"/>
-        <c:axId val="-2105038928"/>
+        <c:axId val="-2140605520"/>
+        <c:axId val="-2140587744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2103432704"/>
+        <c:axId val="-2140605520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2595,12 +2601,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105038928"/>
+        <c:crossAx val="-2140587744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2105038928"/>
+        <c:axId val="-2140587744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,7 +2724,818 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103432704"/>
+        <c:crossAx val="-2140605520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Precision =</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> f(Recall)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task3!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0203802135823745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0569020595329529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0843981835557637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100845723534888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.113159897522775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.126741910253064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.138489929150107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.146503288305435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.156359230799434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.164044569093654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task3!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0464000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0457333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0405499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0364399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0341666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0321142857142856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0286444444444443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0272599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task3!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | task3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task3!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0192532245186898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0505539758529117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0889931416224544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.104721150987931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.121951280064216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13752745231872</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.149166292449461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.155528736573003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.163697814419755</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17081058326205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task3!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0375999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0411000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0465333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0386799999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0361333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0334857142857142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0307999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0290222222222221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0274199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task3!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | task3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task3!$B$30:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0192532245186898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0505539758529117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0889931416224544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.104721150987931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.121951280064216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13752745231872</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.149166292449461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.155528736573003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.163697814419755</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17081058326205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task3!$C$30:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0375999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0411000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0465333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0386799999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0361333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0334857142857142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0307999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0290222222222221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0274199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task3!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for jaccardCaseSimilarity | MeanRecommender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task3!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task3!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2115581824"/>
+        <c:axId val="-2117210576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2115581824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117210576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2117210576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Pr</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>écision</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2115581824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2922,6 +3739,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3955,6 +4812,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4556,6 +5929,43 @@
       <xdr:colOff>698500</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4845,7 +6255,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C39"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5396,7 +6806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B55" sqref="B55:C65"/>
     </sheetView>
   </sheetViews>
@@ -6080,7 +7490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="E3" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -6626,4 +8036,496 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.0380213582374501E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.6902059532952902E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.6400000000000198E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.4398183555763701E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.5733333333333598E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.10084572353488799</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.0549999999999899E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.113159897522775</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.6439999999999598E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.126741910253064</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.4166666666666901E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.13848992915010699</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.2114285714285602E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.14650328830543499</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.9999999999999801E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>0.15635923079943401</v>
+      </c>
+      <c r="C12">
+        <v>2.8644444444444299E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>0.164044569093654</v>
+      </c>
+      <c r="C13">
+        <v>2.7259999999999701E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.9253224518689799E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.7599999999999897E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.0553975852911701E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.1100000000000199E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8.8993141622454405E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4.65333333333336E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.104721150987931</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.17999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.121951280064216</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.86799999999995E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.13752745231871999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.61333333333336E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.149166292449461</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.3485714285714202E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.15552873657300301</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.07999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>0.16369781441975501</v>
+      </c>
+      <c r="C25">
+        <v>2.9022222222222099E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.17081058326205001</v>
+      </c>
+      <c r="C26">
+        <v>2.7419999999999601E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>1.9253224518689799E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.7599999999999897E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>5.0553975852911701E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.1100000000000199E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>8.8993141622454405E-2</v>
+      </c>
+      <c r="C32">
+        <v>4.65333333333336E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>0.104721150987931</v>
+      </c>
+      <c r="C33">
+        <v>4.17999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>0.121951280064216</v>
+      </c>
+      <c r="C34">
+        <v>3.86799999999995E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>0.13752745231871999</v>
+      </c>
+      <c r="C35">
+        <v>3.61333333333336E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.149166292449461</v>
+      </c>
+      <c r="C36">
+        <v>3.3485714285714202E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.15552873657300301</v>
+      </c>
+      <c r="C37">
+        <v>3.07999999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>0.16369781441975501</v>
+      </c>
+      <c r="C38">
+        <v>2.9022222222222099E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>0.17081058326205001</v>
+      </c>
+      <c r="C39">
+        <v>2.7419999999999601E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/case-based/readme/case-based-graph.xlsx
+++ b/case-based/readme/case-based-graph.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Task1" sheetId="1" r:id="rId1"/>
-    <sheet name="Task2 - 1 " sheetId="2" r:id="rId2"/>
-    <sheet name="Task2 - 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Task3" sheetId="4" r:id="rId4"/>
+    <sheet name="Task3" sheetId="4" r:id="rId1"/>
+    <sheet name="Task1" sheetId="1" r:id="rId2"/>
+    <sheet name="Task2 - 1 " sheetId="2" r:id="rId3"/>
+    <sheet name="Task2 - 2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
   <si>
     <t>topN</t>
   </si>
@@ -104,10 +104,22 @@
     <t>Precision for overlapCaseSimilarity | MaxRecommender | movie popularity symmetric | movie mean rating asymmetric higher value</t>
   </si>
   <si>
-    <t>overlapCaseSimilarity | MaxRecommender | task3</t>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | static directors = 1 only</t>
   </si>
   <si>
-    <t>Precision for overlapCaseSimilarity | MaxRecommender | task3</t>
+    <t>overlapCaseSimilarity | MaxRecommender | static directors = static genres = 1 only</t>
+  </si>
+  <si>
+    <t>overlapCaseSimilarity | MaxRecommender | dynamic directors &amp; dynamic genres only</t>
+  </si>
+  <si>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | dynamic directors &amp; dynamic genres only</t>
+  </si>
+  <si>
+    <t>overlapCaseSimilarity | MaxRecommender | dynamic directors &amp; dynamic genres &amp; static actors = 1</t>
+  </si>
+  <si>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | dynamic directors &amp; dynamic genres &amp; static actors = 1</t>
   </si>
 </sst>
 </file>
@@ -166,6 +178,877 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Precision =</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> f(Recall)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task3!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0203802135823745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0569020595329529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0843981835557637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100845723534888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.113159897522775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.126741910253064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.138489929150107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.146503288305435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.156359230799434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.164044569093654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task3!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0464000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0457333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0405499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0364399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0341666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0321142857142856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0286444444444443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0272599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task3!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | static directors = 1 only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task3!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.015483433355763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0462378293223519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0675235882747287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0835311775348166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0977179551471877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.113770434172071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.127737352559784</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.137758668853834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.145142610734127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.150197096990673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task3!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0227999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0345000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0347333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0326500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0309599999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0301333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0290571428571427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0277499999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.026511111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0250799999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task3!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | dynamic directors &amp; dynamic genres only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task3!$B$30:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0204061253993961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0512606270999039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0705514406226962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0845181160231516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.100697499706794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1182932421922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.137503102112429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.157450649420373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.175422995320265</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.191261384593387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task3!$C$30:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0317999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0403000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0372666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0338000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0325199999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0313333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0308571428571427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0303749999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0301333333333332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0294799999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task3!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | dynamic directors &amp; dynamic genres &amp; static actors = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task3!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0204792199688122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0602276980956696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0859343779444504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100058126508605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.113695873915949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.128931231749876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.141056377419401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.155378233962289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16645955855214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.175956980684102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task3!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0469333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0408999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0369599999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0348666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.032742857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0313999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.029911111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0285799999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2115581824"/>
+        <c:axId val="-2117210576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2115581824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117210576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2117210576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Pr</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>écision</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2115581824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1036,7 +1919,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1937,7 +2820,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2808,817 +3691,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Precision =</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> f(Recall)</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Task3!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Task3!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0203802135823745</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0569020595329529</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0843981835557637</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.100845723534888</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.113159897522775</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.126741910253064</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.138489929150107</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.146503288305435</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.156359230799434</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.164044569093654</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Task3!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0398</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0464000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0457333333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0405499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0364399999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0341666666666669</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0321142857142856</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0286444444444443</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0272599999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Task3!$C$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | task3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Task3!$B$17:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0192532245186898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0505539758529117</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0889931416224544</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.104721150987931</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.121951280064216</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13752745231872</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.149166292449461</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.155528736573003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.163697814419755</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.17081058326205</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Task3!$C$17:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0375999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0411000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0465333333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0417999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0386799999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0361333333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0334857142857142</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0307999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0290222222222221</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0274199999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Task3!$C$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | task3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Task3!$B$30:$B$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0192532245186898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0505539758529117</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0889931416224544</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.104721150987931</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.121951280064216</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13752745231872</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.149166292449461</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.155528736573003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.163697814419755</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.17081058326205</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Task3!$C$30:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0375999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0411000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0465333333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0417999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0386799999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0361333333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0334857142857142</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0307999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0290222222222221</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0274199999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Task3!$C$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision for jaccardCaseSimilarity | MeanRecommender</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Task3!$B$43:$B$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Task3!$C$43:$C$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2115581824"/>
-        <c:axId val="-2117210576"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2115581824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Recall</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2117210576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2117210576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Pr</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>écision</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2115581824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5860,6 +5932,43 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="Graphique 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
@@ -5878,7 +5987,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5915,7 +6024,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5929,43 +6038,6 @@
       <xdr:colOff>698500</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6254,6 +6326,558 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:C52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.0380213582374501E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.6902059532952902E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.6400000000000198E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.4398183555763701E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.5733333333333598E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.10084572353488799</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.0549999999999899E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.113159897522775</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.6439999999999598E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.126741910253064</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.4166666666666901E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.13848992915010699</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.2114285714285602E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.14650328830543499</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.9999999999999801E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>0.15635923079943401</v>
+      </c>
+      <c r="C12">
+        <v>2.8644444444444299E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>0.164044569093654</v>
+      </c>
+      <c r="C13">
+        <v>2.7259999999999701E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.5483433355763E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.27999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4.6237829322351903E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.45000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6.7523588274728694E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.4733333333333297E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.3531177534816606E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.26500000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9.7717955147187702E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.0959999999999599E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.113770434172071</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.0133333333333599E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.127737352559784</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.9057142857142702E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.137758668853834</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.7749999999999799E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>0.14514261073412699</v>
+      </c>
+      <c r="C25">
+        <v>2.6511111111110999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.15019709699067299</v>
+      </c>
+      <c r="C26">
+        <v>2.50799999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2.04061253993961E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.1799999999999898E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>5.1260627099903901E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.0300000000000197E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>7.0551440622696193E-2</v>
+      </c>
+      <c r="C32">
+        <v>3.7266666666666698E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>8.4518116023151596E-2</v>
+      </c>
+      <c r="C33">
+        <v>3.3800000000000101E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>0.10069749970679399</v>
+      </c>
+      <c r="C34">
+        <v>3.2519999999999598E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>0.1182932421922</v>
+      </c>
+      <c r="C35">
+        <v>3.1333333333333602E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.137503102112429</v>
+      </c>
+      <c r="C36">
+        <v>3.0857142857142701E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.15745064942037301</v>
+      </c>
+      <c r="C37">
+        <v>3.0374999999999801E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>0.17542299532026501</v>
+      </c>
+      <c r="C38">
+        <v>3.01333333333332E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>0.19126138459338701</v>
+      </c>
+      <c r="C39">
+        <v>2.94799999999996E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>2.04792199688122E-2</v>
+      </c>
+      <c r="C43">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>6.02276980956696E-2</v>
+      </c>
+      <c r="C44">
+        <v>4.90000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>8.5934377944450399E-2</v>
+      </c>
+      <c r="C45">
+        <v>4.6933333333333598E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>0.100058126508605</v>
+      </c>
+      <c r="C46">
+        <v>4.0899999999999902E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>0.113695873915949</v>
+      </c>
+      <c r="C47">
+        <v>3.6959999999999597E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>0.128931231749876</v>
+      </c>
+      <c r="C48">
+        <v>3.48666666666669E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>0.141056377419401</v>
+      </c>
+      <c r="C49">
+        <v>3.2742857142856997E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>0.155378233962289</v>
+      </c>
+      <c r="C50">
+        <v>3.1399999999999803E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>0.16645955855214001</v>
+      </c>
+      <c r="C51">
+        <v>2.9911111111111E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.17595698068410201</v>
+      </c>
+      <c r="C52">
+        <v>2.8579999999999599E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
@@ -6802,7 +7426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
@@ -7486,7 +8110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
@@ -8036,496 +8660,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:C39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.0380213582374501E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5.6902059532952902E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.6400000000000198E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8.4398183555763701E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.5733333333333598E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.10084572353488799</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4.0549999999999899E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.113159897522775</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.6439999999999598E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.126741910253064</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.4166666666666901E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.13848992915010699</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.2114285714285602E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.14650328830543499</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.9999999999999801E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>0.15635923079943401</v>
-      </c>
-      <c r="C12">
-        <v>2.8644444444444299E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>50</v>
-      </c>
-      <c r="B13">
-        <v>0.164044569093654</v>
-      </c>
-      <c r="C13">
-        <v>2.7259999999999701E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.9253224518689799E-2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.7599999999999897E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5.0553975852911701E-2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4.1100000000000199E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1">
-        <v>8.8993141622454405E-2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4.65333333333336E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.104721150987931</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4.17999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.121951280064216</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3.86799999999995E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>30</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.13752745231871999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3.61333333333336E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.149166292449461</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3.3485714285714202E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>40</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.15552873657300301</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3.07999999999998E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>45</v>
-      </c>
-      <c r="B25">
-        <v>0.16369781441975501</v>
-      </c>
-      <c r="C25">
-        <v>2.9022222222222099E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <v>0.17081058326205001</v>
-      </c>
-      <c r="C26">
-        <v>2.7419999999999601E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>1.9253224518689799E-2</v>
-      </c>
-      <c r="C30">
-        <v>3.7599999999999897E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>5.0553975852911701E-2</v>
-      </c>
-      <c r="C31">
-        <v>4.1100000000000199E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <v>8.8993141622454405E-2</v>
-      </c>
-      <c r="C32">
-        <v>4.65333333333336E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>20</v>
-      </c>
-      <c r="B33">
-        <v>0.104721150987931</v>
-      </c>
-      <c r="C33">
-        <v>4.17999999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>25</v>
-      </c>
-      <c r="B34">
-        <v>0.121951280064216</v>
-      </c>
-      <c r="C34">
-        <v>3.86799999999995E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>30</v>
-      </c>
-      <c r="B35">
-        <v>0.13752745231871999</v>
-      </c>
-      <c r="C35">
-        <v>3.61333333333336E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0.149166292449461</v>
-      </c>
-      <c r="C36">
-        <v>3.3485714285714202E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>40</v>
-      </c>
-      <c r="B37">
-        <v>0.15552873657300301</v>
-      </c>
-      <c r="C37">
-        <v>3.07999999999998E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>45</v>
-      </c>
-      <c r="B38">
-        <v>0.16369781441975501</v>
-      </c>
-      <c r="C38">
-        <v>2.9022222222222099E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>50</v>
-      </c>
-      <c r="B39">
-        <v>0.17081058326205001</v>
-      </c>
-      <c r="C39">
-        <v>2.7419999999999601E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/case-based/readme/case-based-graph.xlsx
+++ b/case-based/readme/case-based-graph.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Task3" sheetId="4" r:id="rId1"/>
-    <sheet name="Task1" sheetId="1" r:id="rId2"/>
-    <sheet name="Task2 - 1 " sheetId="2" r:id="rId3"/>
-    <sheet name="Task2 - 2" sheetId="3" r:id="rId4"/>
+    <sheet name="Task3 - 2" sheetId="5" r:id="rId2"/>
+    <sheet name="Task1" sheetId="1" r:id="rId3"/>
+    <sheet name="Task2 - 1 " sheetId="2" r:id="rId4"/>
+    <sheet name="Task2 - 2" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
   <si>
     <t>topN</t>
   </si>
@@ -120,6 +121,21 @@
   </si>
   <si>
     <t>Precision for overlapCaseSimilarity | MaxRecommender | dynamic directors &amp; dynamic genres &amp; static actors = 1</t>
+  </si>
+  <si>
+    <t>››</t>
+  </si>
+  <si>
+    <t>genre distinc between movie case</t>
+  </si>
+  <si>
+    <t>genre distinct beetween user ratings</t>
+  </si>
+  <si>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | w directors = w actors = w genres = 1</t>
+  </si>
+  <si>
+    <t>overlapCaseSimilarity | MaxRecommender | 'static w directors  w genres = 1 only'</t>
   </si>
 </sst>
 </file>
@@ -267,7 +283,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender</c:v>
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | w directors = w actors = w genres = 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -539,34 +555,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0204061253993961</c:v>
+                  <c:v>0.00626608126341098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0512606270999039</c:v>
+                  <c:v>0.0140316382911608</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0705514406226962</c:v>
+                  <c:v>0.0194949970560057</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0845181160231516</c:v>
+                  <c:v>0.0229944515415114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.100697499706794</c:v>
+                  <c:v>0.0282282253594312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1182932421922</c:v>
+                  <c:v>0.031705702120497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.137503102112429</c:v>
+                  <c:v>0.0341864219845113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.157450649420373</c:v>
+                  <c:v>0.0381707438688271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.175422995320265</c:v>
+                  <c:v>0.0440661629329273</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.191261384593387</c:v>
+                  <c:v>0.0463245087121253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,34 +594,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0317999999999999</c:v>
+                  <c:v>0.0119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0403000000000002</c:v>
+                  <c:v>0.0144999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0372666666666667</c:v>
+                  <c:v>0.0141999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0338000000000001</c:v>
+                  <c:v>0.0129</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0325199999999996</c:v>
+                  <c:v>0.0125599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0313333333333336</c:v>
+                  <c:v>0.0120333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0308571428571427</c:v>
+                  <c:v>0.0113428571428571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0303749999999998</c:v>
+                  <c:v>0.011025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0301333333333332</c:v>
+                  <c:v>0.0111555555555555</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0294799999999996</c:v>
+                  <c:v>0.0105799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,36 +672,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0204792199688122</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0602276980956696</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0859343779444504</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.100058126508605</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.113695873915949</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.128931231749876</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.141056377419401</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.155378233962289</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16645955855214</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.175956980684102</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -695,36 +681,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0398</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0490000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0469333333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0408999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0369599999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0348666666666669</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.032742857142857</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0313999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.029911111111111</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0285799999999996</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1134,6 +1090,877 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Task3 - 2'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task3 - 2'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0203802135823745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0569020595329529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0843981835557637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100845723534888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.113159897522775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.126741910253064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.138489929150107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.146503288305435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.156359230799434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.164044569093654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task3 - 2'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0464000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0457333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0405499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0364399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0341666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0321142857142856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0286444444444443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0272599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task3 - 2'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | static directors = 1 only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task3 - 2'!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.015483433355763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0462378293223519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0675235882747287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0835311775348166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0977179551471877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.113770434172071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.127737352559784</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.137758668853834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.145142610734127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.150197096990673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task3 - 2'!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0227999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0345000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0347333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0326500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0309599999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0301333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0290571428571427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0277499999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.026511111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0250799999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task3 - 2'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | dynamic directors &amp; dynamic genres only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task3 - 2'!$B$30:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0204061253993961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0512606270999039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0705514406226962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0845181160231516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.100697499706794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1182932421922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.137503102112429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.157450649420373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.175422995320265</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.191261384593387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task3 - 2'!$C$30:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0317999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0403000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0372666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0338000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0325199999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0313333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0308571428571427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0303749999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0301333333333332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0294799999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task3 - 2'!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | dynamic directors &amp; dynamic genres &amp; static actors = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task3 - 2'!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0204792199688122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0602276980956696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0859343779444504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100058126508605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.113695873915949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.128931231749876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.141056377419401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.155378233962289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16645955855214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.175956980684102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task3 - 2'!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0469333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0408999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0369599999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0348666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.032742857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0313999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.029911111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0285799999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2105112320"/>
+        <c:axId val="-2115852368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2105112320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2115852368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2115852368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Pr</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>écision</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2105112320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Precision =</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> f(Recall)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Task1!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1919,7 +2746,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2820,7 +3647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3851,6 +4678,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5400,6 +6267,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5969,6 +7352,43 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="Graphique 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
@@ -5987,7 +7407,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6024,7 +7444,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6324,10 +7744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:C52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6336,21 +7756,24 @@
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6358,10 +7781,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -6372,7 +7795,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -6383,7 +7806,7 @@
         <v>4.6400000000000198E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -6394,7 +7817,7 @@
         <v>4.5733333333333598E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -6405,7 +7828,7 @@
         <v>4.0549999999999899E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -6416,7 +7839,7 @@
         <v>3.6439999999999598E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -6427,7 +7850,7 @@
         <v>3.4166666666666901E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>35</v>
       </c>
@@ -6438,7 +7861,7 @@
         <v>3.2114285714285602E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>40</v>
       </c>
@@ -6449,7 +7872,7 @@
         <v>2.9999999999999801E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>45</v>
       </c>
@@ -6460,7 +7883,7 @@
         <v>2.8644444444444299E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50</v>
       </c>
@@ -6471,21 +7894,21 @@
         <v>2.7259999999999701E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -6632,10 +8055,10 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>2.04061253993961E-2</v>
+        <v>6.2660812634109803E-3</v>
       </c>
       <c r="C30">
-        <v>3.1799999999999898E-2</v>
+        <v>1.19999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -6643,10 +8066,10 @@
         <v>10</v>
       </c>
       <c r="B31">
-        <v>5.1260627099903901E-2</v>
+        <v>1.4031638291160799E-2</v>
       </c>
       <c r="C31">
-        <v>4.0300000000000197E-2</v>
+        <v>1.44999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -6654,10 +8077,10 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>7.0551440622696193E-2</v>
+        <v>1.94949970560057E-2</v>
       </c>
       <c r="C32">
-        <v>3.7266666666666698E-2</v>
+        <v>1.41999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -6665,10 +8088,10 @@
         <v>20</v>
       </c>
       <c r="B33">
-        <v>8.4518116023151596E-2</v>
+        <v>2.2994451541511401E-2</v>
       </c>
       <c r="C33">
-        <v>3.3800000000000101E-2</v>
+        <v>1.29E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -6676,10 +8099,10 @@
         <v>25</v>
       </c>
       <c r="B34">
-        <v>0.10069749970679399</v>
+        <v>2.8228225359431199E-2</v>
       </c>
       <c r="C34">
-        <v>3.2519999999999598E-2</v>
+        <v>1.2559999999999899E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -6687,10 +8110,10 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>0.1182932421922</v>
+        <v>3.1705702120496997E-2</v>
       </c>
       <c r="C35">
-        <v>3.1333333333333602E-2</v>
+        <v>1.20333333333333E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -6698,10 +8121,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.137503102112429</v>
+        <v>3.41864219845113E-2</v>
       </c>
       <c r="C36">
-        <v>3.0857142857142701E-2</v>
+        <v>1.1342857142857101E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -6709,10 +8132,10 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0.15745064942037301</v>
+        <v>3.8170743868827101E-2</v>
       </c>
       <c r="C37">
-        <v>3.0374999999999801E-2</v>
+        <v>1.1025E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -6720,10 +8143,10 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>0.17542299532026501</v>
+        <v>4.4066162932927297E-2</v>
       </c>
       <c r="C38">
-        <v>3.01333333333332E-2</v>
+        <v>1.11555555555555E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -6731,15 +8154,10 @@
         <v>50</v>
       </c>
       <c r="B39">
-        <v>0.19126138459338701</v>
+        <v>4.6324508712125297E-2</v>
       </c>
       <c r="C39">
-        <v>2.94799999999996E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>2</v>
+        <v>1.05799999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -6762,110 +8180,50 @@
       <c r="A43">
         <v>5</v>
       </c>
-      <c r="B43">
-        <v>2.04792199688122E-2</v>
-      </c>
-      <c r="C43">
-        <v>3.9800000000000002E-2</v>
-      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10</v>
       </c>
-      <c r="B44">
-        <v>6.02276980956696E-2</v>
-      </c>
-      <c r="C44">
-        <v>4.90000000000003E-2</v>
-      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>15</v>
       </c>
-      <c r="B45">
-        <v>8.5934377944450399E-2</v>
-      </c>
-      <c r="C45">
-        <v>4.6933333333333598E-2</v>
-      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>20</v>
       </c>
-      <c r="B46">
-        <v>0.100058126508605</v>
-      </c>
-      <c r="C46">
-        <v>4.0899999999999902E-2</v>
-      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>25</v>
       </c>
-      <c r="B47">
-        <v>0.113695873915949</v>
-      </c>
-      <c r="C47">
-        <v>3.6959999999999597E-2</v>
-      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>30</v>
       </c>
-      <c r="B48">
-        <v>0.128931231749876</v>
-      </c>
-      <c r="C48">
-        <v>3.48666666666669E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>35</v>
       </c>
-      <c r="B49">
-        <v>0.141056377419401</v>
-      </c>
-      <c r="C49">
-        <v>3.2742857142856997E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>40</v>
       </c>
-      <c r="B50">
-        <v>0.155378233962289</v>
-      </c>
-      <c r="C50">
-        <v>3.1399999999999803E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>45</v>
       </c>
-      <c r="B51">
-        <v>0.16645955855214001</v>
-      </c>
-      <c r="C51">
-        <v>2.9911111111111E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
-      </c>
-      <c r="B52">
-        <v>0.17595698068410201</v>
-      </c>
-      <c r="C52">
-        <v>2.8579999999999599E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6875,6 +8233,564 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.0380213582374501E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.6902059532952902E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.6400000000000198E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.4398183555763701E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.5733333333333598E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.10084572353488799</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.0549999999999899E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.113159897522775</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.6439999999999598E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.126741910253064</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.4166666666666901E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.13848992915010699</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.2114285714285602E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.14650328830543499</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.9999999999999801E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>0.15635923079943401</v>
+      </c>
+      <c r="C12">
+        <v>2.8644444444444299E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>0.164044569093654</v>
+      </c>
+      <c r="C13">
+        <v>2.7259999999999701E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.5483433355763E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.27999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4.6237829322351903E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.45000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6.7523588274728694E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.4733333333333297E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.3531177534816606E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.26500000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9.7717955147187702E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.0959999999999599E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.113770434172071</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.0133333333333599E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.127737352559784</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.9057142857142702E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.137758668853834</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.7749999999999799E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>0.14514261073412699</v>
+      </c>
+      <c r="C25">
+        <v>2.6511111111110999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.15019709699067299</v>
+      </c>
+      <c r="C26">
+        <v>2.50799999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2.04061253993961E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.1799999999999898E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>5.1260627099903901E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.0300000000000197E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>7.0551440622696193E-2</v>
+      </c>
+      <c r="C32">
+        <v>3.7266666666666698E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>8.4518116023151596E-2</v>
+      </c>
+      <c r="C33">
+        <v>3.3800000000000101E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>0.10069749970679399</v>
+      </c>
+      <c r="C34">
+        <v>3.2519999999999598E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>0.1182932421922</v>
+      </c>
+      <c r="C35">
+        <v>3.1333333333333602E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.137503102112429</v>
+      </c>
+      <c r="C36">
+        <v>3.0857142857142701E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.15745064942037301</v>
+      </c>
+      <c r="C37">
+        <v>3.0374999999999801E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>0.17542299532026501</v>
+      </c>
+      <c r="C38">
+        <v>3.01333333333332E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>0.19126138459338701</v>
+      </c>
+      <c r="C39">
+        <v>2.94799999999996E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>2.04792199688122E-2</v>
+      </c>
+      <c r="C43">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>6.02276980956696E-2</v>
+      </c>
+      <c r="C44">
+        <v>4.90000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>8.5934377944450399E-2</v>
+      </c>
+      <c r="C45">
+        <v>4.6933333333333598E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>0.100058126508605</v>
+      </c>
+      <c r="C46">
+        <v>4.0899999999999902E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>0.113695873915949</v>
+      </c>
+      <c r="C47">
+        <v>3.6959999999999597E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>0.128931231749876</v>
+      </c>
+      <c r="C48">
+        <v>3.48666666666669E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>0.141056377419401</v>
+      </c>
+      <c r="C49">
+        <v>3.2742857142856997E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>0.155378233962289</v>
+      </c>
+      <c r="C50">
+        <v>3.1399999999999803E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>0.16645955855214001</v>
+      </c>
+      <c r="C51">
+        <v>2.9911111111111E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.17595698068410201</v>
+      </c>
+      <c r="C52">
+        <v>2.8579999999999599E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
@@ -7426,7 +9342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
@@ -8110,7 +10026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>

--- a/case-based/readme/case-based-graph.xlsx
+++ b/case-based/readme/case-based-graph.xlsx
@@ -13,15 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Task6" sheetId="10" r:id="rId1"/>
-    <sheet name="Task3 - 2" sheetId="5" r:id="rId2"/>
-    <sheet name="Task5" sheetId="8" r:id="rId3"/>
+    <sheet name="!!Task3 - 2!!" sheetId="5" r:id="rId2"/>
+    <sheet name="!!Task5!!" sheetId="8" r:id="rId3"/>
     <sheet name="Task5 - co-occurring genres" sheetId="9" r:id="rId4"/>
     <sheet name="Task3" sheetId="4" r:id="rId5"/>
     <sheet name="Feuil1" sheetId="6" r:id="rId6"/>
     <sheet name="Task4" sheetId="7" r:id="rId7"/>
     <sheet name="Task1" sheetId="1" r:id="rId8"/>
     <sheet name="Task2 - 1 " sheetId="2" r:id="rId9"/>
-    <sheet name="Task2 - 2" sheetId="3" r:id="rId10"/>
+    <sheet name="!!Task2 - 2!!" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="272">
   <si>
     <t>topN</t>
   </si>
@@ -823,12 +823,39 @@
   <si>
     <t>Precision for overlapCaseSimilarity | MaxRecommender | cosine similarity for reviews</t>
   </si>
+  <si>
+    <t>explain with I remove actors then that's a good improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reussir à faire marcher mon code pourri ! </t>
+  </si>
+  <si>
+    <t>good result but try to plot stuff for users in order to explain that it works for some but not the users(+ plot user repartiion + plot precision ) + try with jaccard</t>
+  </si>
+  <si>
+    <t>there are not in the test set but aht doesn't mean the recommendation are wrong</t>
+  </si>
+  <si>
+    <t>do the [2] of the slides</t>
+  </si>
+  <si>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | genres co-occurring + confidence (only [1])</t>
+  </si>
+  <si>
+    <t>Precision for overlapCaseSimilarity | MaxRecommender | genres co-occurring +1 if confidence &gt; 0.9 only [1]</t>
+  </si>
+  <si>
+    <t>j'aurais du utiliser autre chose qu'une hashmap mais j'ai deja perdu beaoucp de temps sur ce code (3 jours de 6h de boulot d'optimisation diverses avant qu'on me dire que les data structure etaient le soucis)</t>
+  </si>
+  <si>
+    <t>manipuler des strings est aussi un gros soucis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -840,6 +867,41 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -862,10 +924,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1435,11 +1502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2097928528"/>
-        <c:axId val="-2097922784"/>
+        <c:axId val="-2073083008"/>
+        <c:axId val="-2072333712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2097928528"/>
+        <c:axId val="-2073083008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,12 +1605,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097922784"/>
+        <c:crossAx val="-2072333712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2097922784"/>
+        <c:axId val="-2072333712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,7 +1728,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097928528"/>
+        <c:crossAx val="-2073083008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1790,7 +1857,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2246,11 +2312,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144056480"/>
-        <c:axId val="-2144050784"/>
+        <c:axId val="-2074142816"/>
+        <c:axId val="-2074204000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144056480"/>
+        <c:axId val="-2074142816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,7 +2348,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2349,12 +2414,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144050784"/>
+        <c:crossAx val="-2074204000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144050784"/>
+        <c:axId val="-2074204000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,7 +2470,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2472,7 +2536,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144056480"/>
+        <c:crossAx val="-2074142816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2486,7 +2550,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -5640,11 +5703,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2140760432"/>
-        <c:axId val="-2140757184"/>
+        <c:axId val="-2074176432"/>
+        <c:axId val="-2074173280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2140760432"/>
+        <c:axId val="-2074176432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5686,7 +5749,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140757184"/>
+        <c:crossAx val="-2074173280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5694,7 +5757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140757184"/>
+        <c:axId val="-2074173280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5745,7 +5808,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140760432"/>
+        <c:crossAx val="-2074176432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8878,11 +8941,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2140697296"/>
-        <c:axId val="-2140694048"/>
+        <c:axId val="-2074318592"/>
+        <c:axId val="-2074315440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2140697296"/>
+        <c:axId val="-2074318592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8924,7 +8987,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140694048"/>
+        <c:crossAx val="-2074315440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8932,7 +8995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140694048"/>
+        <c:axId val="-2074315440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8983,7 +9046,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140697296"/>
+        <c:crossAx val="-2074318592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9072,7 +9135,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9470,18 +9532,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143987840"/>
-        <c:axId val="-2143982432"/>
+        <c:axId val="-2137498448"/>
+        <c:axId val="-2088985216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143987840"/>
+        <c:axId val="-2137498448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9548,12 +9609,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143982432"/>
+        <c:crossAx val="-2088985216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143982432"/>
+        <c:axId val="-2088985216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9574,7 +9635,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9641,7 +9701,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143987840"/>
+        <c:crossAx val="-2137498448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9655,7 +9715,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9762,7 +9821,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10160,18 +10218,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144525184"/>
-        <c:axId val="-2144519840"/>
+        <c:axId val="-2071307328"/>
+        <c:axId val="-2094071840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144525184"/>
+        <c:axId val="-2071307328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10238,12 +10295,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144519840"/>
+        <c:crossAx val="-2094071840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144519840"/>
+        <c:axId val="-2094071840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10264,7 +10321,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10331,7 +10387,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144525184"/>
+        <c:crossAx val="-2071307328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10345,7 +10401,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10452,7 +10507,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11086,18 +11140,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141837632"/>
-        <c:axId val="-2141832288"/>
+        <c:axId val="-2088805664"/>
+        <c:axId val="-2137410912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141837632"/>
+        <c:axId val="-2088805664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11164,12 +11217,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141832288"/>
+        <c:crossAx val="-2137410912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141832288"/>
+        <c:axId val="-2137410912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11190,7 +11243,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11257,7 +11309,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141837632"/>
+        <c:crossAx val="-2088805664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11271,7 +11323,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11383,7 +11434,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11899,11 +11949,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143969104"/>
-        <c:axId val="-2143963408"/>
+        <c:axId val="-2074291008"/>
+        <c:axId val="-2074285296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143969104"/>
+        <c:axId val="-2074291008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11935,7 +11985,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12002,12 +12051,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143963408"/>
+        <c:crossAx val="-2074285296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143963408"/>
+        <c:axId val="-2074285296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12058,7 +12107,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12125,7 +12173,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143969104"/>
+        <c:crossAx val="-2074291008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12139,7 +12187,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -12857,11 +12904,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140614624"/>
-        <c:axId val="-2140609312"/>
+        <c:axId val="-2074445168"/>
+        <c:axId val="-2074439872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140614624"/>
+        <c:axId val="-2074445168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12934,12 +12981,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140609312"/>
+        <c:crossAx val="-2074439872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140609312"/>
+        <c:axId val="-2074439872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13026,7 +13073,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140614624"/>
+        <c:crossAx val="-2074445168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13191,7 +13238,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task2 - 2'!$C$3</c:f>
+              <c:f>'!!Task2 - 2!!'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13226,7 +13273,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task2 - 2'!$B$4:$B$13</c:f>
+              <c:f>'!!Task2 - 2!!'!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13265,7 +13312,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task2 - 2'!$C$4:$C$13</c:f>
+              <c:f>'!!Task2 - 2!!'!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13309,7 +13356,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task2 - 2'!$C$16</c:f>
+              <c:f>'!!Task2 - 2!!'!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13344,7 +13391,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task2 - 2'!$B$17:$B$26</c:f>
+              <c:f>'!!Task2 - 2!!'!$B$17:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13383,7 +13430,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task2 - 2'!$C$17:$C$26</c:f>
+              <c:f>'!!Task2 - 2!!'!$C$17:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13427,7 +13474,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task2 - 2'!$C$29</c:f>
+              <c:f>'!!Task2 - 2!!'!$C$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13462,7 +13509,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task2 - 2'!$B$30:$B$39</c:f>
+              <c:f>'!!Task2 - 2!!'!$B$30:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13501,7 +13548,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task2 - 2'!$C$30:$C$39</c:f>
+              <c:f>'!!Task2 - 2!!'!$C$30:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13545,7 +13592,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task2 - 2'!$C$42</c:f>
+              <c:f>'!!Task2 - 2!!'!$C$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13580,7 +13627,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task2 - 2'!$B$43:$B$52</c:f>
+              <c:f>'!!Task2 - 2!!'!$B$43:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13619,7 +13666,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task2 - 2'!$C$43:$C$52</c:f>
+              <c:f>'!!Task2 - 2!!'!$C$43:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13666,11 +13713,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141749856"/>
-        <c:axId val="-2141744192"/>
+        <c:axId val="-2074510832"/>
+        <c:axId val="-2074505104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141749856"/>
+        <c:axId val="-2074510832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13768,12 +13815,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141744192"/>
+        <c:crossAx val="-2074505104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141744192"/>
+        <c:axId val="-2074505104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13890,7 +13937,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141749856"/>
+        <c:crossAx val="-2074510832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14018,7 +14065,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14059,7 +14105,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task3 - 2'!$C$3</c:f>
+              <c:f>'!!Task3 - 2!!'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14094,7 +14140,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task3 - 2'!$B$4:$B$13</c:f>
+              <c:f>'!!Task3 - 2!!'!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14133,7 +14179,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task3 - 2'!$C$4:$C$13</c:f>
+              <c:f>'!!Task3 - 2!!'!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14177,7 +14223,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task3 - 2'!$C$16</c:f>
+              <c:f>'!!Task3 - 2!!'!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14212,7 +14258,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task3 - 2'!$B$17:$B$26</c:f>
+              <c:f>'!!Task3 - 2!!'!$B$17:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14251,7 +14297,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task3 - 2'!$C$17:$C$26</c:f>
+              <c:f>'!!Task3 - 2!!'!$C$17:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14295,7 +14341,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task3 - 2'!$C$29</c:f>
+              <c:f>'!!Task3 - 2!!'!$C$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14330,7 +14376,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task3 - 2'!$B$30:$B$39</c:f>
+              <c:f>'!!Task3 - 2!!'!$B$30:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14369,7 +14415,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task3 - 2'!$C$30:$C$39</c:f>
+              <c:f>'!!Task3 - 2!!'!$C$30:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14413,7 +14459,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task3 - 2'!$C$42</c:f>
+              <c:f>'!!Task3 - 2!!'!$C$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14448,7 +14494,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task3 - 2'!$B$43:$B$52</c:f>
+              <c:f>'!!Task3 - 2!!'!$B$43:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14487,7 +14533,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task3 - 2'!$C$43:$C$52</c:f>
+              <c:f>'!!Task3 - 2!!'!$C$43:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14534,1459 +14580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144579264"/>
-        <c:axId val="-2141103360"/>
+        <c:axId val="-2073441648"/>
+        <c:axId val="-2074005824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144579264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Recall</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2141103360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2141103360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Pr</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>écision</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2144579264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Task3 - 2'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Recall</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Task3 - 2'!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Task3 - 2'!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0203802135823745</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0569020595329529</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0843981835557637</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.100845723534888</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.113159897522775</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.126741910253064</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.138489929150107</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.146503288305435</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.156359230799434</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.164044569093654</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2140984848"/>
-        <c:axId val="-2140981584"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2140984848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2140981584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2140981584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2140984848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Task3 - 2'!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Task3 - 2'!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Task3 - 2'!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0398</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0464000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0457333333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0405499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0364399999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0341666666666669</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0321142857142856</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0286444444444443</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0272599999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2140951984"/>
-        <c:axId val="-2140948720"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2140951984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2140948720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2140948720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2140951984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Precision =</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> f(Recall)</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Task5!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Task5!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0203802135823745</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0569020595329529</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0843981835557637</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.100845723534888</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.113159897522775</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.126741910253064</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.138489929150107</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.146503288305435</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.156359230799434</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.164044569093654</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Task5!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0398</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0464000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0457333333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0405499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0364399999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0341666666666669</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0321142857142856</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0286444444444443</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0272599999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Task5!$C$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | genres co-occurring </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Task5!$B$17:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0205103866987318</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0557583379767314</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0832518771331415</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0966398880681618</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.108671097558042</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.122039355247076</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.132360223082181</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.140322881134134</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.148263613768488</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.154081518605822</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Task5!$C$17:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0398</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0454000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0449333333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03905</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0348399999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0327333333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0304857142857141</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0284249999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0268444444444443</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0252599999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Task5!$C$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | dynamic directors &amp; dynamic genres only</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Task5!$B$30:$B$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Task5!$C$30:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Task5!$C$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | dynamic directors &amp; dynamic genres &amp; static actors = 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Task5!$B$43:$B$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Task5!$C$43:$C$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2140879936"/>
-        <c:axId val="-2140874240"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2140879936"/>
+        <c:axId val="-2073441648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16084,12 +14682,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140874240"/>
+        <c:crossAx val="-2074005824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140874240"/>
+        <c:axId val="-2074005824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16206,7 +14804,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140879936"/>
+        <c:crossAx val="-2073441648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16289,7 +14887,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -16344,7 +14942,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Task5!$B$3</c:f>
+              <c:f>'!!Task3 - 2!!'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16379,7 +14977,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Task5!$A$4:$A$13</c:f>
+              <c:f>'!!Task3 - 2!!'!$A$4:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -16418,7 +15016,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Task5!$B$4:$B$13</c:f>
+              <c:f>'!!Task3 - 2!!'!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -16465,11 +15063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140850448"/>
-        <c:axId val="-2140847152"/>
+        <c:axId val="-2075084784"/>
+        <c:axId val="-2138213312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140850448"/>
+        <c:axId val="-2075084784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16526,12 +15124,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140847152"/>
+        <c:crossAx val="-2138213312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140847152"/>
+        <c:axId val="-2138213312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16588,7 +15186,1832 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140850448"/>
+        <c:crossAx val="-2075084784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'!!Task3 - 2!!'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'!!Task3 - 2!!'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'!!Task3 - 2!!'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0464000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0457333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0405499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0364399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0341666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0321142857142856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0286444444444443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0272599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2136980048"/>
+        <c:axId val="-2136107008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2136980048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2136107008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2136107008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2136980048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'!!Task5!!'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0203802135823745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0569020595329529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0843981835557637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100845723534888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.113159897522775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.126741910253064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.138489929150107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.146503288305435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.156359230799434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.164044569093654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0464000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0457333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0405499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0341666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0321142857142856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0286444444444443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0272599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'!!Task5!!'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | genres co-occurring +1 if confidence &gt; 0.9 only [1]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0205103866987318</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0557583379767314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0832518771331415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0966398880681618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.108671097558042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.122039355247076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.132360223082181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.140322881134134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.148263613768488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.154081518605822</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0454000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0449333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0327333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0304857142857141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0284249999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0268444444444443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0252599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'!!Task5!!'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | genres co-occurring + confidence (only [1])</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$B$30:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0149638875811441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0310438073566265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0389523172249184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0562442623196883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0691889453760305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0769266517531244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0909829014971594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.107867994587786</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.121183907145301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.130986978970277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$C$30:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0275999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0233333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0234500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0211333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0212285714285713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0216249999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0213777777777777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0206999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'!!Task5!!'!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | genres co-occurring </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0152271640435304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0339680267514231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0649361955082467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0882476852314215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0994170599721778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.113232779774234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.123642431006345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.130549280396872</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.141075295036987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.147976372679469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0303999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0338666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0338500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0307599999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0293333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0279142857142856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0259749999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0248888888888888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0235199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'!!Task5!!'!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | genres co-occurring </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$B$56:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0159843374979489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.024548079460782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0328867714714667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0442334519178563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0579650399272478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.066189340439513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0756862093016166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0905397160028597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.102523038333821</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.107782082766565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$C$56:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0227999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0179333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0185599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0173714285714285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.017775</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0180666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0173399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2134393872"/>
+        <c:axId val="-2138321472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2134393872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2138321472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2138321472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2134393872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'!!Task5!!'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0203802135823745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0569020595329529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0843981835557637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100845723534888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.113159897522775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.126741910253064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.138489929150107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.146503288305435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.156359230799434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.164044569093654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'!!Task5!!'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$A$17:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0205103866987318</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0557583379767314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0832518771331415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0966398880681618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.108671097558042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.122039355247076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.132360223082181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.140322881134134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.148263613768488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.154081518605822</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'!!Task5!!'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$A$30:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$B$30:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0149638875811441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0310438073566265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0389523172249184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0562442623196883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0691889453760305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0769266517531244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0909829014971594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.107867994587786</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.121183907145301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.130986978970277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2073439856"/>
+        <c:axId val="-2073663728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2073439856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2073663728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2073663728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2073439856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16652,6 +17075,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16688,15 +17112,245 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Task5!$C$3</c:f>
+              <c:f>'!!Task5!!'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Precision for overlapCaseSimilarity | MaxRecommender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0464000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0457333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0405499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0341666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0321142857142856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0286444444444443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0272599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'!!Task5!!'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | genres co-occurring +1 if confidence &gt; 0.9 only [1]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$A$17:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'!!Task5!!'!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0454000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0449333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0327333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0304857142857141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0284249999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0268444444444443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0252599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'!!Task5!!'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | genres co-occurring + confidence (only [1])</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16727,7 +17381,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Task5!$A$4:$A$13</c:f>
+              <c:f>'!!Task5!!'!$A$30:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -16766,39 +17420,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Task5!$C$4:$C$13</c:f>
+              <c:f>'!!Task5!!'!$C$30:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0398</c:v>
+                  <c:v>0.0275999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0464000000000002</c:v>
+                  <c:v>0.0276</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0457333333333336</c:v>
+                  <c:v>0.0233333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0405499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0364399999999996</c:v>
+                  <c:v>0.0234500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0341666666666669</c:v>
+                  <c:v>0.0211333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0321142857142856</c:v>
+                  <c:v>0.0212285714285713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0299999999999998</c:v>
+                  <c:v>0.0216249999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0286444444444443</c:v>
+                  <c:v>0.0213777777777777</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0272599999999997</c:v>
+                  <c:v>0.0206999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16813,11 +17464,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140819248"/>
-        <c:axId val="-2140815952"/>
+        <c:axId val="-2075015440"/>
+        <c:axId val="-2075012144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140819248"/>
+        <c:axId val="-2075015440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16874,12 +17525,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140815952"/>
+        <c:crossAx val="-2075012144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140815952"/>
+        <c:axId val="-2075012144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16936,7 +17587,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140819248"/>
+        <c:crossAx val="-2075015440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17030,7 +17681,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17589,11 +18239,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2141916912"/>
-        <c:axId val="-2141914144"/>
+        <c:axId val="-2074981232"/>
+        <c:axId val="-2074978464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141916912"/>
+        <c:axId val="-2074981232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17602,7 +18252,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141914144"/>
+        <c:crossAx val="-2074978464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17610,7 +18260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141914144"/>
+        <c:axId val="-2074978464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17661,7 +18311,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141916912"/>
+        <c:crossAx val="-2074981232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17750,7 +18400,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18309,11 +18958,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2140780832"/>
-        <c:axId val="-2140778064"/>
+        <c:axId val="-2074947600"/>
+        <c:axId val="-2074944832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2140780832"/>
+        <c:axId val="-2074947600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18322,7 +18971,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140778064"/>
+        <c:crossAx val="-2074944832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18330,7 +18979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140778064"/>
+        <c:axId val="-2074944832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18381,7 +19030,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140780832"/>
+        <c:crossAx val="-2074947600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29255,10 +29904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C26"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29267,21 +29916,31 @@
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -29292,7 +29951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -29303,7 +29962,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -29314,7 +29973,7 @@
         <v>4.6400000000000198E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -29325,7 +29984,7 @@
         <v>4.5733333333333598E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -29336,7 +29995,7 @@
         <v>4.0549999999999899E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -29347,7 +30006,7 @@
         <v>3.6439999999999598E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -29358,7 +30017,7 @@
         <v>3.4166666666666901E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>35</v>
       </c>
@@ -29369,7 +30028,7 @@
         <v>3.2114285714285602E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>40</v>
       </c>
@@ -29380,7 +30039,7 @@
         <v>2.9999999999999801E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>45</v>
       </c>
@@ -29391,7 +30050,7 @@
         <v>2.8644444444444299E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50</v>
       </c>
@@ -29402,21 +30061,21 @@
         <v>2.7259999999999701E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -29908,8 +30567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29918,11 +30577,13 @@
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="7" t="s">
+        <v>265</v>
+      </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -30458,10 +31119,568 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C3" activeCellId="1" sqref="A3:A13 C3:C13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.0380213582374501E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.6902059532952902E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.6400000000000198E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.4398183555763701E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.5733333333333598E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.10084572353488799</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.0549999999999899E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.113159897522775</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.6439999999999598E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.126741910253064</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.4166666666666901E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.13848992915010699</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.2114285714285602E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.14650328830543499</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.9999999999999801E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>0.15635923079943401</v>
+      </c>
+      <c r="C12">
+        <v>2.8644444444444299E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>0.164044569093654</v>
+      </c>
+      <c r="C13">
+        <v>2.7259999999999701E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.5483433355763E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.27999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4.6237829322351903E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.45000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6.7523588274728694E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.4733333333333297E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.3531177534816606E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.26500000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9.7717955147187702E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.0959999999999599E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.113770434172071</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.0133333333333599E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.127737352559784</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.9057142857142702E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.137758668853834</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.7749999999999799E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>0.14514261073412699</v>
+      </c>
+      <c r="C25">
+        <v>2.6511111111110999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.15019709699067299</v>
+      </c>
+      <c r="C26">
+        <v>2.50799999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2.04061253993961E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.1799999999999898E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>5.1260627099903901E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.0300000000000197E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>7.0551440622696193E-2</v>
+      </c>
+      <c r="C32">
+        <v>3.7266666666666698E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>8.4518116023151596E-2</v>
+      </c>
+      <c r="C33">
+        <v>3.3800000000000101E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>0.10069749970679399</v>
+      </c>
+      <c r="C34">
+        <v>3.2519999999999598E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>0.1182932421922</v>
+      </c>
+      <c r="C35">
+        <v>3.1333333333333602E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.137503102112429</v>
+      </c>
+      <c r="C36">
+        <v>3.0857142857142701E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.15745064942037301</v>
+      </c>
+      <c r="C37">
+        <v>3.0374999999999801E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>0.17542299532026501</v>
+      </c>
+      <c r="C38">
+        <v>3.01333333333332E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>0.19126138459338701</v>
+      </c>
+      <c r="C39">
+        <v>2.94799999999996E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>2.04792199688122E-2</v>
+      </c>
+      <c r="C43">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>6.02276980956696E-2</v>
+      </c>
+      <c r="C44">
+        <v>4.90000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>8.5934377944450399E-2</v>
+      </c>
+      <c r="C45">
+        <v>4.6933333333333598E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>0.100058126508605</v>
+      </c>
+      <c r="C46">
+        <v>4.0899999999999902E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>0.113695873915949</v>
+      </c>
+      <c r="C47">
+        <v>3.6959999999999597E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>0.128931231749876</v>
+      </c>
+      <c r="C48">
+        <v>3.48666666666669E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>0.141056377419401</v>
+      </c>
+      <c r="C49">
+        <v>3.2742857142856997E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>0.155378233962289</v>
+      </c>
+      <c r="C50">
+        <v>3.1399999999999803E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>0.16645955855214001</v>
+      </c>
+      <c r="C51">
+        <v>2.9911111111111E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.17595698068410201</v>
+      </c>
+      <c r="C52">
+        <v>2.8579999999999599E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30552,7 +31771,7 @@
       <c r="B8" s="1">
         <v>0.113159897522775</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>3.6439999999999598E-2</v>
       </c>
     </row>
@@ -30611,152 +31830,148 @@
         <v>2.7259999999999701E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2.05103866987318E-2</v>
+      </c>
+      <c r="C17">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>5.5758337976731402E-2</v>
+      </c>
+      <c r="C18">
+        <v>4.5400000000000197E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>8.32518771331415E-2</v>
+      </c>
+      <c r="C19">
+        <v>4.4933333333333603E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>9.6639888068161803E-2</v>
+      </c>
+      <c r="C20">
+        <v>3.9050000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.5483433355763E-2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.27999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4.6237829322351903E-2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3.45000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1">
-        <v>6.7523588274728694E-2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3.4733333333333297E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>8.3531177534816606E-2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3.26500000000002E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1">
-        <v>9.7717955147187702E-2</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3.0959999999999599E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="B21">
+        <v>0.108671097558042</v>
+      </c>
+      <c r="D21">
+        <v>3.48399999999996E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>30</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.113770434172071</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3.0133333333333599E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="B22">
+        <v>0.122039355247076</v>
+      </c>
+      <c r="C22">
+        <v>3.27333333333336E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>35</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.127737352559784</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.9057142857142702E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="B23">
+        <v>0.13236022308218101</v>
+      </c>
+      <c r="C23">
+        <v>3.0485714285714099E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" s="1">
-        <v>0.137758668853834</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2.7749999999999799E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>0.14032288113413399</v>
+      </c>
+      <c r="C24">
+        <v>2.8424999999999801E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>45</v>
       </c>
       <c r="B25">
-        <v>0.14514261073412699</v>
+        <v>0.14826361376848801</v>
       </c>
       <c r="C25">
-        <v>2.6511111111110999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.6844444444444299E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50</v>
       </c>
       <c r="B26">
-        <v>0.15019709699067299</v>
+        <v>0.154081518605822</v>
       </c>
       <c r="C26">
-        <v>2.50799999999997E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.5259999999999699E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -30764,130 +31979,130 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>2.04061253993961E-2</v>
+        <v>1.49638875811441E-2</v>
       </c>
       <c r="C30">
-        <v>3.1799999999999898E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.7599999999999899E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31">
-        <v>5.1260627099903901E-2</v>
+        <v>3.1043807356626499E-2</v>
       </c>
       <c r="C31">
-        <v>4.0300000000000197E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>15</v>
       </c>
       <c r="B32">
-        <v>7.0551440622696193E-2</v>
+        <v>3.8952317224918397E-2</v>
       </c>
       <c r="C32">
-        <v>3.7266666666666698E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.3333333333333199E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>20</v>
       </c>
       <c r="B33">
-        <v>8.4518116023151596E-2</v>
+        <v>5.62442623196883E-2</v>
       </c>
       <c r="C33">
-        <v>3.3800000000000101E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.3450000000000099E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>25</v>
       </c>
       <c r="B34">
-        <v>0.10069749970679399</v>
-      </c>
-      <c r="C34">
-        <v>3.2519999999999598E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.91889453760305E-2</v>
+      </c>
+      <c r="D34">
+        <v>2.27999999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>30</v>
       </c>
       <c r="B35">
-        <v>0.1182932421922</v>
+        <v>7.6926651753124395E-2</v>
       </c>
       <c r="C35">
-        <v>3.1333333333333602E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.11333333333334E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.137503102112429</v>
+        <v>9.0982901497159402E-2</v>
       </c>
       <c r="C36">
-        <v>3.0857142857142701E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.1228571428571302E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0.15745064942037301</v>
+        <v>0.107867994587786</v>
       </c>
       <c r="C37">
-        <v>3.0374999999999801E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.1624999999999901E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>45</v>
       </c>
       <c r="B38">
-        <v>0.17542299532026501</v>
+        <v>0.121183907145301</v>
       </c>
       <c r="C38">
-        <v>3.01333333333332E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.13777777777777E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>50</v>
       </c>
       <c r="B39">
-        <v>0.19126138459338701</v>
+        <v>0.130986978970277</v>
       </c>
       <c r="C39">
-        <v>2.94799999999996E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.0699999999999701E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -30895,73 +32110,73 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5</v>
       </c>
       <c r="B43">
-        <v>2.04792199688122E-2</v>
+        <v>1.5227164043530399E-2</v>
       </c>
       <c r="C43">
-        <v>3.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.0399999999999899E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10</v>
       </c>
       <c r="B44">
-        <v>6.02276980956696E-2</v>
+        <v>3.3968026751423103E-2</v>
       </c>
       <c r="C44">
-        <v>4.90000000000003E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>15</v>
       </c>
       <c r="B45">
-        <v>8.5934377944450399E-2</v>
+        <v>6.4936195508246697E-2</v>
       </c>
       <c r="C45">
-        <v>4.6933333333333598E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.3866666666666601E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>20</v>
       </c>
       <c r="B46">
-        <v>0.100058126508605</v>
+        <v>8.8247685231421499E-2</v>
       </c>
       <c r="C46">
-        <v>4.0899999999999902E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.3850000000000102E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>25</v>
       </c>
       <c r="B47">
-        <v>0.113695873915949</v>
+        <v>9.9417059972177799E-2</v>
       </c>
       <c r="C47">
-        <v>3.6959999999999597E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.07599999999996E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>30</v>
       </c>
       <c r="B48">
-        <v>0.128931231749876</v>
+        <v>0.113232779774234</v>
       </c>
       <c r="C48">
-        <v>3.48666666666669E-2</v>
+        <v>2.93333333333336E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -30969,10 +32184,10 @@
         <v>35</v>
       </c>
       <c r="B49">
-        <v>0.141056377419401</v>
+        <v>0.123642431006345</v>
       </c>
       <c r="C49">
-        <v>3.2742857142856997E-2</v>
+        <v>2.79142857142856E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -30980,10 +32195,10 @@
         <v>40</v>
       </c>
       <c r="B50">
-        <v>0.155378233962289</v>
+        <v>0.130549280396872</v>
       </c>
       <c r="C50">
-        <v>3.1399999999999803E-2</v>
+        <v>2.59749999999998E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -30991,10 +32206,10 @@
         <v>45</v>
       </c>
       <c r="B51">
-        <v>0.16645955855214001</v>
+        <v>0.14107529503698699</v>
       </c>
       <c r="C51">
-        <v>2.9911111111111E-2</v>
+        <v>2.4888888888888801E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -31002,444 +32217,141 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.17595698068410201</v>
+        <v>0.147976372679469</v>
       </c>
       <c r="C52">
-        <v>2.8579999999999599E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+        <v>2.3519999999999701E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>2.0380213582374501E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="B56">
+        <v>1.5984337497948899E-2</v>
+      </c>
+      <c r="C56">
+        <v>2.27999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
-        <v>5.6902059532952902E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.6400000000000198E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="B57">
+        <v>2.4548079460782E-2</v>
+      </c>
+      <c r="C57">
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>15</v>
       </c>
-      <c r="B6" s="1">
-        <v>8.4398183555763701E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.5733333333333598E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="B58">
+        <v>3.2886771471466701E-2</v>
+      </c>
+      <c r="C58">
+        <v>1.7933333333333201E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.10084572353488799</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4.0549999999999899E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="B59">
+        <v>4.4233451917856298E-2</v>
+      </c>
+      <c r="C59">
+        <v>1.8149999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>25</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.113159897522775</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.6439999999999598E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="B60">
+        <v>5.7965039927247802E-2</v>
+      </c>
+      <c r="C60">
+        <v>1.8559999999999799E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>30</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.126741910253064</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.4166666666666901E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="B61">
+        <v>6.6189340439512995E-2</v>
+      </c>
+      <c r="C61">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>35</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.13848992915010699</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.2114285714285602E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="B62">
+        <v>7.5686209301616597E-2</v>
+      </c>
+      <c r="C62">
+        <v>1.73714285714285E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>40</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.14650328830543499</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.9999999999999801E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="B63">
+        <v>9.0539716002859705E-2</v>
+      </c>
+      <c r="C63">
+        <v>1.7774999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>45</v>
       </c>
-      <c r="B12">
-        <v>0.15635923079943401</v>
-      </c>
-      <c r="C12">
-        <v>2.8644444444444299E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B64">
+        <v>0.102523038333821</v>
+      </c>
+      <c r="C64">
+        <v>1.8066666666666599E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>50</v>
       </c>
-      <c r="B13">
-        <v>0.164044569093654</v>
-      </c>
-      <c r="C13">
-        <v>2.7259999999999701E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>2.05103866987318E-2</v>
-      </c>
-      <c r="C17">
-        <v>3.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>5.5758337976731402E-2</v>
-      </c>
-      <c r="C18">
-        <v>4.5400000000000197E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>8.32518771331415E-2</v>
-      </c>
-      <c r="C19">
-        <v>4.4933333333333603E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>9.6639888068161803E-2</v>
-      </c>
-      <c r="C20">
-        <v>3.9050000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>0.108671097558042</v>
-      </c>
-      <c r="C21">
-        <v>3.48399999999996E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>0.122039355247076</v>
-      </c>
-      <c r="C22">
-        <v>3.27333333333336E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>35</v>
-      </c>
-      <c r="B23">
-        <v>0.13236022308218101</v>
-      </c>
-      <c r="C23">
-        <v>3.0485714285714099E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>0.14032288113413399</v>
-      </c>
-      <c r="C24">
-        <v>2.8424999999999801E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>45</v>
-      </c>
-      <c r="B25">
-        <v>0.14826361376848801</v>
-      </c>
-      <c r="C25">
-        <v>2.6844444444444299E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <v>0.154081518605822</v>
-      </c>
-      <c r="C26">
-        <v>2.5259999999999699E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>50</v>
+      <c r="B65">
+        <v>0.10778208276656499</v>
+      </c>
+      <c r="C65">
+        <v>1.73399999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -31450,18 +32362,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -31474,8 +32387,11 @@
       <c r="F1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K1" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -31492,7 +32408,7 @@
         <v>0.43709226467847101</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -31509,7 +32425,7 @@
         <v>0.41845293569431502</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -31526,7 +32442,7 @@
         <v>0.299161230195712</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -31543,7 +32459,7 @@
         <v>0.26654240447343802</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -31560,7 +32476,7 @@
         <v>0.25535880708294501</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -31577,7 +32493,7 @@
         <v>0.24417520969245099</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -31594,7 +32510,7 @@
         <v>0.19664492078285101</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -31611,7 +32527,7 @@
         <v>0.18266542404473399</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -31628,7 +32544,7 @@
         <v>0.176141658900279</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -31645,7 +32561,7 @@
         <v>0.139794967381174</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -31662,7 +32578,7 @@
         <v>0.12581547064305601</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -31679,7 +32595,7 @@
         <v>9.6924510717614099E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -31696,7 +32612,7 @@
         <v>7.6421248835041894E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -31713,7 +32629,7 @@
         <v>4.7530288909599198E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -33425,7 +34341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -41932,7 +42848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -43187,7 +44103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B55" sqref="B55:C65"/>
     </sheetView>
   </sheetViews>

--- a/case-based/readme/case-based-graph.xlsx
+++ b/case-based/readme/case-based-graph.xlsx
@@ -1190,36 +1190,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0203802135823745</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0569020595329529</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0843981835557637</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.100845723534888</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.113159897522775</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.126741910253064</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.138489929150107</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.146503288305435</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.156359230799434</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.164044569093654</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1229,36 +1199,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0398</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0464000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0457333333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0405499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0364399999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0341666666666669</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0321142857142856</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0286444444444443</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0272599999999997</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1273,7 +1213,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Precision for overlapCaseSimilarity | MeanRecommender</c:v>
+                  <c:v>Precision for overlapCaseSimilarity | MaxRecommender | cosine similarity for reviews</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1309,31 +1249,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.00818556533617385</c:v>
+                  <c:v>0.160631641805307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.254210547021316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0261864842148319</c:v>
+                  <c:v>0.323602442746389</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0321654293483178</c:v>
+                  <c:v>0.36764440117866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0404313483713233</c:v>
+                  <c:v>0.411370003593809</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0471846881501169</c:v>
+                  <c:v>0.455272333171718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0521797216896037</c:v>
+                  <c:v>0.487899582623262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0592838824704266</c:v>
+                  <c:v>0.519316701456466</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0652730399842335</c:v>
+                  <c:v>0.542512680628893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0723286466863936</c:v>
+                  <c:v>0.564756752966867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,34 +1288,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0129999999999999</c:v>
+                  <c:v>0.212999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0130999999999999</c:v>
+                  <c:v>0.168099999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0135999999999999</c:v>
+                  <c:v>0.143466666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01295</c:v>
+                  <c:v>0.1228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0113599999999999</c:v>
+                  <c:v>0.110679999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0129666666666666</c:v>
+                  <c:v>0.102333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0126571428571428</c:v>
+                  <c:v>0.0945428571428577</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0126</c:v>
+                  <c:v>0.088675</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0123333333333332</c:v>
+                  <c:v>0.0828666666666674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0123399999999998</c:v>
+                  <c:v>0.0781799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,33 +1366,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0245895225835971</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0601489413724962</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.072078852579231</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0813234689449925</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0928637326214555</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.103551346787194</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.111605193883593</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.119467422138389</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.126983561819935</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1459,36 +1375,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0382</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0313000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0301999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0277000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0253999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0239333333333335</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0229142857142856</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0215499999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0206888888888888</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0200199999999998</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1502,11 +1388,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073083008"/>
-        <c:axId val="-2072333712"/>
+        <c:axId val="-2141953488"/>
+        <c:axId val="2108449376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073083008"/>
+        <c:axId val="-2141953488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,12 +1491,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072333712"/>
+        <c:crossAx val="2108449376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2072333712"/>
+        <c:axId val="2108449376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1728,7 +1614,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073083008"/>
+        <c:crossAx val="-2141953488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2312,11 +2198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2074142816"/>
-        <c:axId val="-2074204000"/>
+        <c:axId val="-2140951872"/>
+        <c:axId val="-2140946176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2074142816"/>
+        <c:axId val="-2140951872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,12 +2300,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074204000"/>
+        <c:crossAx val="-2140946176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2074204000"/>
+        <c:axId val="-2140946176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,7 +2422,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074142816"/>
+        <c:crossAx val="-2140951872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5703,11 +5589,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2074176432"/>
-        <c:axId val="-2074173280"/>
+        <c:axId val="-2141661072"/>
+        <c:axId val="-2141657824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2074176432"/>
+        <c:axId val="-2141661072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5749,7 +5635,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074173280"/>
+        <c:crossAx val="-2141657824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5757,7 +5643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074173280"/>
+        <c:axId val="-2141657824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5808,7 +5694,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074176432"/>
+        <c:crossAx val="-2141661072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8941,11 +8827,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2074318592"/>
-        <c:axId val="-2074315440"/>
+        <c:axId val="-2140984752"/>
+        <c:axId val="-2140981600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2074318592"/>
+        <c:axId val="-2140984752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8987,7 +8873,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074315440"/>
+        <c:crossAx val="-2140981600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8995,7 +8881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074315440"/>
+        <c:axId val="-2140981600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9046,7 +8932,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074318592"/>
+        <c:crossAx val="-2140984752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9532,11 +9418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137498448"/>
-        <c:axId val="-2088985216"/>
+        <c:axId val="2107232576"/>
+        <c:axId val="2107123760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137498448"/>
+        <c:axId val="2107232576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9609,12 +9495,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088985216"/>
+        <c:crossAx val="2107123760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2088985216"/>
+        <c:axId val="2107123760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9701,7 +9587,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137498448"/>
+        <c:crossAx val="2107232576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10218,11 +10104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2071307328"/>
-        <c:axId val="-2094071840"/>
+        <c:axId val="-2140839072"/>
+        <c:axId val="-2140833664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2071307328"/>
+        <c:axId val="-2140839072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10295,12 +10181,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094071840"/>
+        <c:crossAx val="-2140833664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094071840"/>
+        <c:axId val="-2140833664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10387,7 +10273,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071307328"/>
+        <c:crossAx val="-2140839072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11140,11 +11026,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2088805664"/>
-        <c:axId val="-2137410912"/>
+        <c:axId val="-2140773216"/>
+        <c:axId val="-2140767872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2088805664"/>
+        <c:axId val="-2140773216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11217,12 +11103,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137410912"/>
+        <c:crossAx val="-2140767872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137410912"/>
+        <c:axId val="-2140767872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11309,7 +11195,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088805664"/>
+        <c:crossAx val="-2140773216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11949,11 +11835,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2074291008"/>
-        <c:axId val="-2074285296"/>
+        <c:axId val="-2141610944"/>
+        <c:axId val="-2141605248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2074291008"/>
+        <c:axId val="-2141610944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12051,12 +11937,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074285296"/>
+        <c:crossAx val="-2141605248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2074285296"/>
+        <c:axId val="-2141605248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12173,7 +12059,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074291008"/>
+        <c:crossAx val="-2141610944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12904,11 +12790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2074445168"/>
-        <c:axId val="-2074439872"/>
+        <c:axId val="-2141504336"/>
+        <c:axId val="-2141499024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2074445168"/>
+        <c:axId val="-2141504336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12981,12 +12867,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074439872"/>
+        <c:crossAx val="-2141499024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2074439872"/>
+        <c:axId val="-2141499024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13073,7 +12959,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074445168"/>
+        <c:crossAx val="-2141504336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13713,11 +13599,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2074510832"/>
-        <c:axId val="-2074505104"/>
+        <c:axId val="-2141436336"/>
+        <c:axId val="-2141430672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2074510832"/>
+        <c:axId val="-2141436336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13815,12 +13701,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074505104"/>
+        <c:crossAx val="-2141430672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2074505104"/>
+        <c:axId val="-2141430672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13937,7 +13823,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074510832"/>
+        <c:crossAx val="-2141436336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14065,6 +13951,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14580,11 +14467,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073441648"/>
-        <c:axId val="-2074005824"/>
+        <c:axId val="-2143221104"/>
+        <c:axId val="-2143226768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073441648"/>
+        <c:axId val="-2143221104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14616,6 +14503,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14682,12 +14570,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074005824"/>
+        <c:crossAx val="-2143226768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2074005824"/>
+        <c:axId val="-2143226768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14738,6 +14626,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14804,7 +14693,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073441648"/>
+        <c:crossAx val="-2143221104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14818,6 +14707,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -14902,6 +14792,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15063,11 +14954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2075084784"/>
-        <c:axId val="-2138213312"/>
+        <c:axId val="-2143256848"/>
+        <c:axId val="-2143260112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2075084784"/>
+        <c:axId val="-2143256848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15124,12 +15015,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2138213312"/>
+        <c:crossAx val="-2143260112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138213312"/>
+        <c:axId val="-2143260112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15186,7 +15077,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075084784"/>
+        <c:crossAx val="-2143256848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15250,6 +15141,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15411,11 +15303,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136980048"/>
-        <c:axId val="-2136107008"/>
+        <c:axId val="-2141854304"/>
+        <c:axId val="-2141851040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136980048"/>
+        <c:axId val="-2141854304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15472,12 +15364,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136107008"/>
+        <c:crossAx val="-2141851040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136107008"/>
+        <c:axId val="-2141851040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15534,7 +15426,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136980048"/>
+        <c:crossAx val="-2141854304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15598,7 +15490,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16223,18 +16114,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2134393872"/>
-        <c:axId val="-2138321472"/>
+        <c:axId val="-2141777968"/>
+        <c:axId val="-2141772656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2134393872"/>
+        <c:axId val="-2141777968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16301,12 +16191,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2138321472"/>
+        <c:crossAx val="-2141772656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138321472"/>
+        <c:axId val="-2141772656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16327,7 +16217,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16394,7 +16283,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134393872"/>
+        <c:crossAx val="-2141777968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16408,7 +16297,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16490,7 +16378,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16888,11 +16775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073439856"/>
-        <c:axId val="-2073663728"/>
+        <c:axId val="-2141733840"/>
+        <c:axId val="-2141730576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073439856"/>
+        <c:axId val="-2141733840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16949,12 +16836,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073663728"/>
+        <c:crossAx val="-2141730576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2073663728"/>
+        <c:axId val="-2141730576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17011,7 +16898,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073439856"/>
+        <c:crossAx val="-2141733840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17075,7 +16962,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17464,11 +17350,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2075015440"/>
-        <c:axId val="-2075012144"/>
+        <c:axId val="-2141690944"/>
+        <c:axId val="-2141687680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2075015440"/>
+        <c:axId val="-2141690944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17525,12 +17411,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075012144"/>
+        <c:crossAx val="-2141687680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2075012144"/>
+        <c:axId val="-2141687680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17587,7 +17473,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075015440"/>
+        <c:crossAx val="-2141690944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18239,11 +18125,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2074981232"/>
-        <c:axId val="-2074978464"/>
+        <c:axId val="-2141072976"/>
+        <c:axId val="-2141070208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2074981232"/>
+        <c:axId val="-2141072976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18252,7 +18138,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074978464"/>
+        <c:crossAx val="-2141070208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18260,7 +18146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074978464"/>
+        <c:axId val="-2141070208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18311,7 +18197,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074981232"/>
+        <c:crossAx val="-2141072976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18958,11 +18844,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2074947600"/>
-        <c:axId val="-2074944832"/>
+        <c:axId val="-2141027472"/>
+        <c:axId val="-2141024704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2074947600"/>
+        <c:axId val="-2141027472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18971,7 +18857,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074944832"/>
+        <c:crossAx val="-2141024704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18979,7 +18865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074944832"/>
+        <c:axId val="-2141024704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19030,7 +18916,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074947600"/>
+        <c:crossAx val="-2141027472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29907,7 +29793,7 @@
   <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30090,111 +29976,67 @@
       <c r="A17" s="1">
         <v>5</v>
       </c>
-      <c r="B17" s="1">
-        <v>2.0380213582374501E-2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.9800000000000002E-2</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="1">
-        <v>5.6902059532952902E-2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4.6400000000000198E-2</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="1">
-        <v>8.4398183555763701E-2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4.5733333333333598E-2</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.10084572353488799</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4.0549999999999899E-2</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>25</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.113159897522775</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3.6439999999999598E-2</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>30</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.126741910253064</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3.4166666666666901E-2</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>35</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.13848992915010699</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3.2114285714285602E-2</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>40</v>
       </c>
-      <c r="B24" s="1">
-        <v>0.14650328830543499</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2.9999999999999801E-2</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>45</v>
       </c>
-      <c r="B25">
-        <v>0.15635923079943401</v>
-      </c>
-      <c r="C25">
-        <v>2.8644444444444299E-2</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50</v>
       </c>
-      <c r="B26">
-        <v>0.164044569093654</v>
-      </c>
-      <c r="C26">
-        <v>2.7259999999999701E-2</v>
-      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -30203,7 +30045,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -30214,7 +30056,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -30222,18 +30064,21 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>8.1855653361738497E-3</v>
+        <v>0.16063164180530701</v>
       </c>
       <c r="C30">
-        <v>1.2999999999999901E-2</v>
+        <v>0.212999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10</v>
       </c>
+      <c r="B31">
+        <v>0.25421054702131601</v>
+      </c>
       <c r="C31">
-        <v>1.30999999999999E-2</v>
+        <v>0.168099999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -30241,10 +30086,10 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>2.6186484214831902E-2</v>
+        <v>0.323602442746389</v>
       </c>
       <c r="C32">
-        <v>1.35999999999999E-2</v>
+        <v>0.14346666666666699</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -30252,10 +30097,10 @@
         <v>20</v>
       </c>
       <c r="B33">
-        <v>3.2165429348317801E-2</v>
+        <v>0.36764440117865999</v>
       </c>
       <c r="C33">
-        <v>1.295E-2</v>
+        <v>0.12280000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -30263,10 +30108,10 @@
         <v>25</v>
       </c>
       <c r="B34">
-        <v>4.0431348371323297E-2</v>
+        <v>0.41137000359380899</v>
       </c>
       <c r="C34">
-        <v>1.13599999999999E-2</v>
+        <v>0.110679999999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -30274,10 +30119,10 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>4.71846881501169E-2</v>
+        <v>0.455272333171718</v>
       </c>
       <c r="C35">
-        <v>1.29666666666666E-2</v>
+        <v>0.102333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -30285,10 +30130,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>5.2179721689603699E-2</v>
+        <v>0.487899582623262</v>
       </c>
       <c r="C36">
-        <v>1.2657142857142799E-2</v>
+        <v>9.4542857142857706E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -30296,10 +30141,10 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>5.9283882470426597E-2</v>
+        <v>0.51931670145646602</v>
       </c>
       <c r="C37">
-        <v>1.26E-2</v>
+        <v>8.8675000000000004E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -30307,10 +30152,10 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>6.5273039984233505E-2</v>
+        <v>0.54251268062889302</v>
       </c>
       <c r="C38">
-        <v>1.23333333333332E-2</v>
+        <v>8.2866666666667393E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -30318,10 +30163,10 @@
         <v>50</v>
       </c>
       <c r="B39">
-        <v>7.2328646686393605E-2</v>
+        <v>0.564756752966867</v>
       </c>
       <c r="C39">
-        <v>1.2339999999999801E-2</v>
+        <v>7.8179999999999902E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -30349,107 +30194,50 @@
       <c r="A43">
         <v>5</v>
       </c>
-      <c r="B43">
-        <v>2.45895225835971E-2</v>
-      </c>
-      <c r="C43">
-        <v>3.8199999999999998E-2</v>
-      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10</v>
       </c>
-      <c r="C44">
-        <v>3.1300000000000099E-2</v>
-      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>15</v>
       </c>
-      <c r="B45">
-        <v>6.0148941372496198E-2</v>
-      </c>
-      <c r="C45">
-        <v>3.0199999999999901E-2</v>
-      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>20</v>
       </c>
-      <c r="B46">
-        <v>7.2078852579230995E-2</v>
-      </c>
-      <c r="C46">
-        <v>2.77000000000001E-2</v>
-      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>25</v>
       </c>
-      <c r="B47">
-        <v>8.1323468944992497E-2</v>
-      </c>
-      <c r="C47">
-        <v>2.5399999999999701E-2</v>
-      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>30</v>
       </c>
-      <c r="B48">
-        <v>9.2863732621455503E-2</v>
-      </c>
-      <c r="C48">
-        <v>2.3933333333333501E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>35</v>
       </c>
-      <c r="B49">
-        <v>0.10355134678719401</v>
-      </c>
-      <c r="C49">
-        <v>2.2914285714285599E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>40</v>
       </c>
-      <c r="B50">
-        <v>0.111605193883593</v>
-      </c>
-      <c r="C50">
-        <v>2.1549999999999899E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>45</v>
       </c>
-      <c r="B51">
-        <v>0.119467422138389</v>
-      </c>
-      <c r="C51">
-        <v>2.0688888888888798E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
-      </c>
-      <c r="B52">
-        <v>0.126983561819935</v>
-      </c>
-      <c r="C52">
-        <v>2.0019999999999798E-2</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
@@ -31122,7 +30910,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
